--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -1,38 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{CAFA59AD-5D72-4D72-9043-BF28E3F2070E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{426D4982-4798-499E-94CC-8745F8AA2361}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="10" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="38" firstSheet="37" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="CCDeferredPlanCorp" r:id="rId1" sheetId="4"/>
     <sheet name="CCDeferredPlanPC" r:id="rId2" sheetId="3"/>
-    <sheet name="CCDeferredPlanCredit" r:id="rId3" sheetId="1"/>
-    <sheet name="CCDeferredPlanPS" r:id="rId4" sheetId="2"/>
-    <sheet name="VerifyCreateLabelDeferredCorp" r:id="rId5" sheetId="9"/>
-    <sheet name="VerifyCancelLabelDeferredCorp" r:id="rId6" sheetId="10"/>
-    <sheet name="VerifyEditLabelDeferredCorp" r:id="rId7" sheetId="11"/>
-    <sheet name="VerifyCreateLabelDeferredPS" r:id="rId8" sheetId="15"/>
-    <sheet name="VerifyEditLabelDeferredPS" r:id="rId9" sheetId="16"/>
-    <sheet name="VerifyCancelLabelDeferredPS" r:id="rId10" sheetId="17"/>
-    <sheet name="VerifyCreateLabelDeferredCredit" r:id="rId11" sheetId="18"/>
-    <sheet name="VerifyEditLabelDeferredCredit" r:id="rId12" sheetId="19"/>
-    <sheet name="VerifyCancelLabelDeferredCredit" r:id="rId13" sheetId="20"/>
-    <sheet name="VerifyCreateLabelDeferredPC" r:id="rId14" sheetId="12"/>
-    <sheet name="VerifyEditLabelDeferredPC" r:id="rId15" sheetId="13"/>
-    <sheet name="VerifyCancelLabelDeferredPC" r:id="rId16" sheetId="14"/>
-    <sheet name="CMCDeferredPlanPS" r:id="rId17" sheetId="6"/>
-    <sheet name="CMCDeferredPlanCredit" r:id="rId18" sheetId="5"/>
-    <sheet name="CMCDeferredPlanPC" r:id="rId19" sheetId="7"/>
-    <sheet name="CMCDeferredPlanCorp" r:id="rId20" sheetId="8"/>
+    <sheet name="CCDeferredPlanPS" r:id="rId3" sheetId="2"/>
+    <sheet name="CCDeferredPlanCredit" r:id="rId4" sheetId="1"/>
+    <sheet name="CCAutoPayPlanCorp" r:id="rId5" sheetId="21"/>
+    <sheet name="CCAutoPayPlanCredit" r:id="rId6" sheetId="22"/>
+    <sheet name="CCAutoPayPlanPC" r:id="rId7" sheetId="23"/>
+    <sheet name="CCAutoPayPlanPS" r:id="rId8" sheetId="24"/>
+    <sheet name="VerifyCreateLabelDeferredCorp" r:id="rId9" sheetId="9"/>
+    <sheet name="VerifyCancelLabelDeferredCorp" r:id="rId10" sheetId="10"/>
+    <sheet name="VerifyEditLabelDeferredCorp" r:id="rId11" sheetId="11"/>
+    <sheet name="VerifyCreateLabelDeferredPS" r:id="rId12" sheetId="15"/>
+    <sheet name="VerifyEditLabelDeferredPS" r:id="rId13" sheetId="16"/>
+    <sheet name="VerifyCancelLabelDeferredPS" r:id="rId14" sheetId="17"/>
+    <sheet name="VerifyCreateLabelDeferredCredit" r:id="rId15" sheetId="18"/>
+    <sheet name="VerifyEditLabelDeferredCredit" r:id="rId16" sheetId="19"/>
+    <sheet name="VerifyCancelLabelDeferredCredit" r:id="rId17" sheetId="20"/>
+    <sheet name="VerifyCreateLabelDeferredPC" r:id="rId18" sheetId="12"/>
+    <sheet name="VerifyEditLabelDeferredPC" r:id="rId19" sheetId="13"/>
+    <sheet name="VerifyCancelLabelDeferredPC" r:id="rId20" sheetId="14"/>
+    <sheet name="CMCDeferredPlanPS" r:id="rId21" sheetId="6"/>
+    <sheet name="CMCDeferredPlanCredit" r:id="rId22" sheetId="5"/>
+    <sheet name="CMCDeferredPlanPC" r:id="rId23" sheetId="7"/>
+    <sheet name="CMCDeferredPlanCorp" r:id="rId24" sheetId="8"/>
+    <sheet name="CMCAutoPayPlanCorp" r:id="rId25" sheetId="25"/>
+    <sheet name="CMCAutoPayPlanCredit" r:id="rId26" sheetId="26"/>
+    <sheet name="CMCAutoPayPlanPC" r:id="rId27" sheetId="27"/>
+    <sheet name="CMCAutoPayPlanPS" r:id="rId28" sheetId="28"/>
+    <sheet name="VerifyCreateLabelAutopayCorp" r:id="rId29" sheetId="29"/>
+    <sheet name="VerifyCreateLabelAutopayCC" r:id="rId30" sheetId="30"/>
+    <sheet name="VerifyCreateLabelAutopayPC" r:id="rId31" sheetId="31"/>
+    <sheet name="VerifyEditLabelAutopayCorp" r:id="rId32" sheetId="33"/>
+    <sheet name="VerifyEditLabelAutopayCC" r:id="rId33" sheetId="34"/>
+    <sheet name="VerifyEditLabelAutopayPS" r:id="rId34" sheetId="35"/>
+    <sheet name="VerifyEditLabelAutopayPC" r:id="rId35" sheetId="36"/>
+    <sheet name="VerifyCancelLabelAutopayCorp" r:id="rId36" sheetId="37"/>
+    <sheet name="VerifyCancelLabelAutopayCC" r:id="rId37" sheetId="38"/>
+    <sheet name="VerifyCancelLabelAutopayPC" r:id="rId38" sheetId="39"/>
+    <sheet name="VerifyCancelLabelAutopayPS" r:id="rId39" sheetId="40"/>
+    <sheet name="VerifyCreateLabelAutopayPS" r:id="rId40" sheetId="32"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="179">
   <si>
     <t>Result</t>
   </si>
@@ -232,193 +252,355 @@
     <t>1</t>
   </si>
   <si>
-    <t>Thu Sep 12 22:41:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 18 23:17:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Sep 20 17:51:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Sep 20 18:04:32 IST 2024</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CardNum</t>
+  </si>
+  <si>
+    <t>ExpM</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>ExpY</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>CCDate</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 13:03:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 13:09:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 13:53:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 13:54:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 13:56:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 14:02:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 14:03:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 14:04:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 14:07:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 14:08:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 14:10:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 14:11:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 18:37:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 19:08:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 19:29:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 19:31:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 19:33:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 25 20:43:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Sep 26 17:37:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Sep 26 17:49:26 IST 2024</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Tue Oct 01 18:44:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 01 18:56:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 01 20:24:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 01 20:46:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 02 18:17:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 02 18:48:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 02 18:52:05 IST 2024</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Sat Sep 21 01:33:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Sep 21 01:34:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Sep 21 01:35:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Sep 21 01:37:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Sep 21 01:42:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Sep 21 01:43:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Sep 21 01:45:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Sep 21 01:46:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>CardNum</t>
-  </si>
-  <si>
-    <t>ExpM</t>
-  </si>
-  <si>
-    <t>SPC</t>
-  </si>
-  <si>
-    <t>ExpY</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 17:35:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 17:46:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 17:48:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 17:50:40 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 17:55:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 19:00:12 IST 2024</t>
-  </si>
-  <si>
-    <t>CCDate</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 20:53:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 21:02:21 IST 2024</t>
+    <t>Thu Oct 03 18:14:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 03 18:43:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 03 18:51:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 03 19:09:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 03 19:56:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 03 20:48:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 03 21:34:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 03 21:36:54 IST 2024</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Tue Sep 24 22:56:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 23:29:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Sep 24 23:56:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:00:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:01:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:02:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:03:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:05:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:06:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:07:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:09:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:52:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:53:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:54:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:56:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:02:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:03:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:04:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:05:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:07:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:08:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:10:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:11:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:29:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:33:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:37:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 19:08:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 19:29:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 19:31:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 19:33:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 20:04:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 20:43:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 17:37:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 17:49:26 IST 2024</t>
+    <t>Fri Oct 04 18:18:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 18:20:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 18:43:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 18:46:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 18:58:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 19:05:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 19:24:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 19:33:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 20:21:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:47:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:48:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:50:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:51:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:52:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:53:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:56:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:57:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:39:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:41:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:42:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:43:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:49:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:50:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:52:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:53:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:54:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:55:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:57:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:58:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:05:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:06:31 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:07:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:09:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:10:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:11:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:12:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:14:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:15:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:17:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:19:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:20:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:21:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:23:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:24:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:13:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:14:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:16:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:17:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:18:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:20:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:21:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:22:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:28:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:29:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:31:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:32:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:33:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:34:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:35:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:36:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:37:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:39:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:40:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:42:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:43:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:44:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:46:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:47:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 07 18:57:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 07 18:59:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 07 19:07:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 07 19:43:37 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -784,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480F8651-F3AC-4535-B367-EFECB2CBCC7D}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +1047,7 @@
         <v>50</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>51</v>
@@ -888,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -975,6 +1157,804 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A45949-68BF-404E-8F7F-FB2E9E2F425C}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4B946A-2C4C-46EF-93A1-2FF7963F4F9C}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AE2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB1C7FA-E6AE-425E-93E9-7344162BF220}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F90F0E-2E15-46C5-95C8-91EEE2324B31}">
+  <dimension ref="A1:AI2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AH2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6083FB1-02F1-48D6-92EE-3F1FBC7D79B0}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
@@ -1064,7 +2044,7 @@
         <v>50</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>51</v>
@@ -1084,7 +2064,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1165,7 +2145,7 @@
         <v>25</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>26</v>
@@ -1179,7 +2159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF9C0F3-0DA7-44CD-B9A8-E552BD6DF9FF}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
@@ -1245,22 +2225,22 @@
         <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>51</v>
@@ -1283,7 +2263,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1355,7 +2335,7 @@
         <v>25</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>26</v>
@@ -1372,11 +2352,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F02A9F4-7828-4F92-A71A-133EDBD34118}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -1438,22 +2418,22 @@
         <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>51</v>
@@ -1468,7 +2448,7 @@
         <v>54</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AD1" s="1"/>
     </row>
@@ -1477,7 +2457,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1549,7 +2529,7 @@
         <v>25</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>26</v>
@@ -1565,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305C12C-5443-4486-B7D9-3C403F6F0EF8}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
@@ -1631,22 +2611,22 @@
         <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>51</v>
@@ -1666,7 +2646,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1738,7 +2718,7 @@
         <v>25</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>26</v>
@@ -1752,12 +2732,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6314CBCE-7A5E-4A0C-AF29-C3F1F0871FFF}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1842,7 +2822,7 @@
         <v>50</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>51</v>
@@ -1862,7 +2842,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1943,7 +2923,7 @@
         <v>25</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>26</v>
@@ -1957,7 +2937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9259111-57D2-4ED8-A106-9387F81FA5DC}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
@@ -2047,7 +3027,7 @@
         <v>50</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>51</v>
@@ -2062,7 +3042,7 @@
         <v>54</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
@@ -2072,7 +3052,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2153,7 +3133,7 @@
         <v>25</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>26</v>
@@ -2163,810 +3143,6 @@
       </c>
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E446BF9-B02F-4740-AE83-9C5B060028BD}">
-  <dimension ref="A1:AF2"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5776B0E-DB55-4350-9FD4-A6F4560407FB}">
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAED720-8B00-473F-B284-AD53190F508A}">
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1473DEC-6EE5-4076-9D5F-5EF76D644876}">
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2978,7 +3154,7 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+      <selection activeCell="K2" sqref="A1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3074,7 +3250,7 @@
         <v>50</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>51</v>
@@ -3097,7 +3273,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3193,11 +3369,815 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E446BF9-B02F-4740-AE83-9C5B060028BD}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5776B0E-DB55-4350-9FD4-A6F4560407FB}">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAED720-8B00-473F-B284-AD53190F508A}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1473DEC-6EE5-4076-9D5F-5EF76D644876}">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A2BFFF-8CE2-4286-9146-DB049A020FA4}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3273,7 +4253,7 @@
         <v>50</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>51</v>
@@ -3288,7 +4268,7 @@
         <v>54</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -3296,7 +4276,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3381,12 +4361,3087 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD943804-0444-45BD-878A-2DB8B5C8234B}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C6E4E3-FEB0-4C8B-8567-D979A0CFEDEF}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE49C93-4BD2-4356-A28C-773B8D671B0F}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0FF61A-DB8D-4A74-B78B-03F8F9F8B349}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BB3CFB-F620-4173-A70F-13BA05E908A1}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2598D2-608A-4EC2-A59A-28A4F2F2C19C}">
+  <dimension ref="A1:AI2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AH2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D02957-4C1C-4B36-8539-E094F8816C63}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB69706-E238-4434-A63F-310C1977C6F0}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3025D6A-7D6F-4C6F-96B5-791B34BCC219}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87FB397-5204-4FE3-B53C-72270511A532}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49FB132-06F3-42B4-B1F9-A19038A385CE}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72A2B1-158A-4CBE-92BF-97BEEB618388}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49C59E-95FC-4A4C-AF9C-FF331A4E9E2C}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0AE3F5-1EA2-4637-B154-6C76E01F26D3}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD921781-5791-4926-9100-5C0AAE19E7EB}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2214AEC-363E-46E4-BBEE-32CDF3D3A6A4}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="X1" sqref="A1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3450,22 +7505,22 @@
         <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>51</v>
@@ -3487,7 +7542,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3575,17 +7630,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2598D2-608A-4EC2-A59A-28A4F2F2C19C}">
-  <dimension ref="A1:AI2"/>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635B70C7-5F0C-49BF-B62E-2D9C67AF607B}">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24:S31"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3665,7 +7720,7 @@
         <v>50</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>51</v>
@@ -3679,16 +7734,13 @@
       <c r="AE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3697,7 +7749,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -3705,9 +7757,7 @@
       <c r="G2" s="1">
         <v>2.5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3762,21 +7812,19 @@
       <c r="Z2" s="1">
         <v>123456789</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="AA2" s="1"/>
       <c r="AB2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AD2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="2"/>
-      <c r="AH2" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3784,11 +7832,201 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460D88B6-A386-4846-BE51-48B1BF32CF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69CD0F-BD47-4004-A91B-17A22C7F7735}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" style="2" width="8.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
+    <col min="8" max="19" style="2" width="8.88671875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="24" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EF7E36-4F46-42AF-81C0-1EDDD67C9FDF}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3849,22 +8087,22 @@
         <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>51</v>
@@ -3884,26 +8122,24 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3935,29 +8171,25 @@
         <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
         <v>26</v>
       </c>
@@ -3970,12 +8202,410 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A45949-68BF-404E-8F7F-FB2E9E2F425C}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6359DCBA-59FF-4F94-BFD9-D794DEE8EC36}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAEEA5C-DCE4-437D-991D-54A142ED2AFD}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460D88B6-A386-4846-BE51-48B1BF32CF9B}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4051,7 +8681,7 @@
         <v>50</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>51</v>
@@ -4071,7 +8701,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4143,7 +8773,7 @@
         <v>25</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>26</v>
@@ -4151,617 +8781,6 @@
       <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4B946A-2C4C-46EF-93A1-2FF7963F4F9C}">
-  <dimension ref="A1:AF2"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="2"/>
-      <c r="AE2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB1C7FA-E6AE-425E-93E9-7344162BF220}">
-  <dimension ref="A1:AF2"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F90F0E-2E15-46C5-95C8-91EEE2324B31}">
-  <dimension ref="A1:AI2"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-    </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" s="2"/>
-      <c r="AH2" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{426D4982-4798-499E-94CC-8745F8AA2361}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2A48C76F-6110-46D3-AF91-4FDB9E921A82}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="38" firstSheet="37" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="3" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="CCDeferredPlanCorp" r:id="rId1" sheetId="4"/>
@@ -54,7 +54,7 @@
     <sheet name="VerifyCancelLabelAutopayPS" r:id="rId39" sheetId="40"/>
     <sheet name="VerifyCreateLabelAutopayPS" r:id="rId40" sheetId="32"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="189">
   <si>
     <t>Result</t>
   </si>
@@ -273,334 +273,364 @@
     <t>CCDate</t>
   </si>
   <si>
-    <t>Wed Sep 25 13:03:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:09:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:53:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:54:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:56:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:02:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:03:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:04:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:07:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:08:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:10:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:11:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:37:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 19:08:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 19:29:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 19:31:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 19:33:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 20:43:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 17:37:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 17:49:26 IST 2024</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>Tue Oct 01 18:44:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 01 18:56:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 01 20:24:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 01 20:46:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 02 18:17:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 02 18:48:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 02 18:52:05 IST 2024</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Thu Oct 03 18:14:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 03 18:43:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 03 18:51:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 03 19:09:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 03 19:56:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 03 20:48:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 03 21:34:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 03 21:36:54 IST 2024</t>
+    <t>Mon Oct 07 19:07:28 IST 2024</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:26:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 14 21:01:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:14:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:15:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:17:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:18:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:20:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:21:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:23:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:24:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:26:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:27:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:29:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:31:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:33:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:35:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:37:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:39:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:41:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:42:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:47:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:48:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:50:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:51:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:53:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:54:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:57:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:59:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:00:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:02:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:03:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:08:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:10:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:11:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:13:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:15:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:16:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:18:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:20:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:22:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:23:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:25:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:27:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:29:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:33:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:35:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:46:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:47:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:48:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:49:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:51:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:52:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:54:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:55:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:57:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:58:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:00:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:01:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:03:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:04:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:06:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:07:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:09:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:10:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:11:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:13:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:15:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:16:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:18:31 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:19:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:31:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:32:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 20:33:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 20:35:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 21:11:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 21:15:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 21:16:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 21:18:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 21:20:13 IST 2024</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Fri Oct 04 18:18:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 18:20:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 18:43:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 18:46:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 18:58:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 19:05:40 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 19:24:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 19:33:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 20:21:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:47:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:48:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:50:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:51:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:52:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:53:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:56:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:57:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:39:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:41:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:42:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:43:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:49:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:50:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:52:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:53:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:54:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:55:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:57:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:58:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:05:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:06:31 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:07:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:09:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:10:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:11:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:12:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:14:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:15:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:17:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:19:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:20:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:21:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:23:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:24:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:13:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:14:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:16:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:17:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:18:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:20:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:21:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:22:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:28:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:29:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:31:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:32:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:33:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:34:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:35:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:36:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:37:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:39:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:40:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:42:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:43:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:44:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:46:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:47:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Oct 07 18:57:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Oct 07 18:59:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Oct 07 19:07:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Oct 07 19:43:37 IST 2024</t>
+    <t>Tue Oct 15 21:26:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 21:27:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 21:31:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 21:32:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 00:19:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 00:37:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 17:59:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:01:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:16:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:18:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:22:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:23:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:26:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:28:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:31:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:37:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:38:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:42:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:43:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:49:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:50:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:53:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:54:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 18:58:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 19:00:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 19:04:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 19:05:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 19:12:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 19:13:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 19:17:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 19:18:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 19:21:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 16 19:22:43 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -964,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480F8651-F3AC-4535-B367-EFECB2CBCC7D}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1100,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1150,6 +1180,90 @@
       </c>
       <c r="AC2" s="2"/>
       <c r="AE2" s="4"/>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1158,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A45949-68BF-404E-8F7F-FB2E9E2F425C}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,7 +1371,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1335,6 +1449,92 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1345,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4B946A-2C4C-46EF-93A1-2FF7963F4F9C}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,7 +1649,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1531,6 +1731,93 @@
       </c>
       <c r="AC2" s="2"/>
       <c r="AE2" s="4"/>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1539,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB1C7FA-E6AE-425E-93E9-7344162BF220}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,7 +1934,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1734,6 +2021,101 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1744,13 +2126,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F90F0E-2E15-46C5-95C8-91EEE2324B31}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1857,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1948,6 +2333,102 @@
       </c>
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
+    </row>
+    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1956,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6083FB1-02F1-48D6-92EE-3F1FBC7D79B0}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,7 +2545,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2151,6 +2632,101 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2161,13 +2737,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF9C0F3-0DA7-44CD-B9A8-E552BD6DF9FF}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="23.21875" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2263,7 +2842,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2346,6 +2925,92 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2354,10 +3019,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F02A9F4-7828-4F92-A71A-133EDBD34118}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2457,7 +3122,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2539,6 +3204,93 @@
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="1"/>
+    </row>
+    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2547,10 +3299,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305C12C-5443-4486-B7D9-3C403F6F0EF8}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2646,7 +3398,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2724,6 +3476,92 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2734,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6314CBCE-7A5E-4A0C-AF29-C3F1F0871FFF}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,7 +3680,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2929,6 +3767,101 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2939,13 +3872,16 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9259111-57D2-4ED8-A106-9387F81FA5DC}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3052,7 +3988,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3143,6 +4079,102 @@
       </c>
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
+    </row>
+    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3151,10 +4183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C90F22-FE25-4600-AD2E-915F2F742F43}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="A1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3273,7 +4305,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3362,6 +4394,99 @@
       </c>
       <c r="AG2"/>
       <c r="AH2" s="4"/>
+    </row>
+    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3370,10 +4495,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E446BF9-B02F-4740-AE83-9C5B060028BD}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3478,7 +4603,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3565,6 +4690,101 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3575,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5776B0E-DB55-4350-9FD4-A6F4560407FB}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3686,7 +4906,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3774,6 +4994,100 @@
         <v>27</v>
       </c>
       <c r="AF2" s="2"/>
+    </row>
+    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3782,10 +5096,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAED720-8B00-473F-B284-AD53190F508A}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3881,7 +5195,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3957,6 +5271,90 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3967,10 +5365,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1473DEC-6EE5-4076-9D5F-5EF76D644876}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4078,7 +5476,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4166,6 +5564,100 @@
         <v>27</v>
       </c>
       <c r="AF2" s="2"/>
+    </row>
+    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4174,10 +5666,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A2BFFF-8CE2-4286-9146-DB049A020FA4}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4276,7 +5768,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4355,6 +5847,91 @@
         <v>27</v>
       </c>
       <c r="AC2" s="2"/>
+    </row>
+    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4363,10 +5940,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD943804-0444-45BD-878A-2DB8B5C8234B}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4465,7 +6042,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4474,7 +6051,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -4540,6 +6117,87 @@
         <v>27</v>
       </c>
       <c r="AC2" s="2"/>
+    </row>
+    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4548,10 +6206,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C6E4E3-FEB0-4C8B-8567-D979A0CFEDEF}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4644,10 +6302,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4656,7 +6314,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -4719,6 +6377,86 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4729,10 +6467,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE49C93-4BD2-4356-A28C-773B8D671B0F}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4837,7 +6575,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4846,7 +6584,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -4918,6 +6656,95 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4928,10 +6755,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0FF61A-DB8D-4A74-B78B-03F8F9F8B349}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5036,7 +6863,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5045,7 +6872,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -5117,6 +6944,95 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5127,10 +7043,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BB3CFB-F620-4173-A70F-13BA05E908A1}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5226,7 +7142,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5235,7 +7151,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -5300,6 +7216,88 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5310,10 +7308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2598D2-608A-4EC2-A59A-28A4F2F2C19C}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5421,7 +7419,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5510,6 +7508,99 @@
       </c>
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
+    </row>
+    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5518,10 +7609,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D02957-4C1C-4B36-8539-E094F8816C63}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5617,7 +7708,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5626,7 +7717,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -5691,6 +7782,88 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5701,10 +7874,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB69706-E238-4434-A63F-310C1977C6F0}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5809,7 +7982,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5818,7 +7991,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -5892,6 +8065,97 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5902,10 +8166,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3025D6A-7D6F-4C6F-96B5-791B34BCC219}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:AB2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6001,7 +8265,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6010,7 +8274,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -6075,6 +8339,88 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6085,10 +8431,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87FB397-5204-4FE3-B53C-72270511A532}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6181,10 +8527,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6193,7 +8539,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -6258,6 +8604,88 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6268,10 +8696,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49FB132-06F3-42B4-B1F9-A19038A385CE}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6376,7 +8804,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6385,7 +8813,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -6459,6 +8887,97 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6469,10 +8988,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72A2B1-158A-4CBE-92BF-97BEEB618388}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6577,7 +9096,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6586,7 +9105,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -6660,6 +9179,97 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6670,10 +9280,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49C59E-95FC-4A4C-AF9C-FF331A4E9E2C}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6769,7 +9379,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6778,7 +9388,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -6843,6 +9453,88 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6853,10 +9545,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0AE3F5-1EA2-4637-B154-6C76E01F26D3}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6952,7 +9644,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6961,7 +9653,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -7026,6 +9718,88 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7036,10 +9810,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD921781-5791-4926-9100-5C0AAE19E7EB}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7144,7 +9918,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7153,7 +9927,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -7227,6 +10001,97 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7237,10 +10102,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2214AEC-363E-46E4-BBEE-32CDF3D3A6A4}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7345,7 +10210,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7354,7 +10219,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -7428,6 +10293,97 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7438,10 +10394,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7542,7 +10498,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7621,6 +10577,90 @@
         <v>27</v>
       </c>
       <c r="AD2" s="1"/>
+    </row>
+    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7632,10 +10672,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635B70C7-5F0C-49BF-B62E-2D9C67AF607B}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7740,7 +10780,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7749,7 +10789,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -7823,6 +10863,97 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7833,10 +10964,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69CD0F-BD47-4004-A91B-17A22C7F7735}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7941,7 +11072,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7950,7 +11081,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -8013,6 +11144,86 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8023,10 +11234,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EF7E36-4F46-42AF-81C0-1EDDD67C9FDF}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8122,7 +11333,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8131,7 +11342,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -8194,6 +11405,86 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8204,10 +11495,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6359DCBA-59FF-4F94-BFD9-D794DEE8EC36}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8312,7 +11603,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8321,7 +11612,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -8393,6 +11684,95 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8403,10 +11783,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAEEA5C-DCE4-437D-991D-54A142ED2AFD}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8511,7 +11891,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8520,7 +11900,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -8592,6 +11972,95 @@
         <v>26</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8602,10 +12071,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460D88B6-A386-4846-BE51-48B1BF32CF9B}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8701,7 +12170,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8779,6 +12248,92 @@
         <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2A48C76F-6110-46D3-AF91-4FDB9E921A82}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C4BFA823-FF9D-47E7-8388-2160B1142FF2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="8" firstSheet="6" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="CCDeferredPlanCorp" r:id="rId1" sheetId="4"/>
@@ -21,38 +21,39 @@
     <sheet name="CCAutoPayPlanCredit" r:id="rId6" sheetId="22"/>
     <sheet name="CCAutoPayPlanPC" r:id="rId7" sheetId="23"/>
     <sheet name="CCAutoPayPlanPS" r:id="rId8" sheetId="24"/>
-    <sheet name="VerifyCreateLabelDeferredCorp" r:id="rId9" sheetId="9"/>
-    <sheet name="VerifyCancelLabelDeferredCorp" r:id="rId10" sheetId="10"/>
-    <sheet name="VerifyEditLabelDeferredCorp" r:id="rId11" sheetId="11"/>
-    <sheet name="VerifyCreateLabelDeferredPS" r:id="rId12" sheetId="15"/>
-    <sheet name="VerifyEditLabelDeferredPS" r:id="rId13" sheetId="16"/>
-    <sheet name="VerifyCancelLabelDeferredPS" r:id="rId14" sheetId="17"/>
-    <sheet name="VerifyCreateLabelDeferredCredit" r:id="rId15" sheetId="18"/>
-    <sheet name="VerifyEditLabelDeferredCredit" r:id="rId16" sheetId="19"/>
-    <sheet name="VerifyCancelLabelDeferredCredit" r:id="rId17" sheetId="20"/>
-    <sheet name="VerifyCreateLabelDeferredPC" r:id="rId18" sheetId="12"/>
-    <sheet name="VerifyEditLabelDeferredPC" r:id="rId19" sheetId="13"/>
-    <sheet name="VerifyCancelLabelDeferredPC" r:id="rId20" sheetId="14"/>
-    <sheet name="CMCDeferredPlanPS" r:id="rId21" sheetId="6"/>
-    <sheet name="CMCDeferredPlanCredit" r:id="rId22" sheetId="5"/>
-    <sheet name="CMCDeferredPlanPC" r:id="rId23" sheetId="7"/>
-    <sheet name="CMCDeferredPlanCorp" r:id="rId24" sheetId="8"/>
-    <sheet name="CMCAutoPayPlanCorp" r:id="rId25" sheetId="25"/>
-    <sheet name="CMCAutoPayPlanCredit" r:id="rId26" sheetId="26"/>
-    <sheet name="CMCAutoPayPlanPC" r:id="rId27" sheetId="27"/>
-    <sheet name="CMCAutoPayPlanPS" r:id="rId28" sheetId="28"/>
-    <sheet name="VerifyCreateLabelAutopayCorp" r:id="rId29" sheetId="29"/>
-    <sheet name="VerifyCreateLabelAutopayCC" r:id="rId30" sheetId="30"/>
-    <sheet name="VerifyCreateLabelAutopayPC" r:id="rId31" sheetId="31"/>
-    <sheet name="VerifyEditLabelAutopayCorp" r:id="rId32" sheetId="33"/>
-    <sheet name="VerifyEditLabelAutopayCC" r:id="rId33" sheetId="34"/>
-    <sheet name="VerifyEditLabelAutopayPS" r:id="rId34" sheetId="35"/>
-    <sheet name="VerifyEditLabelAutopayPC" r:id="rId35" sheetId="36"/>
-    <sheet name="VerifyCancelLabelAutopayCorp" r:id="rId36" sheetId="37"/>
-    <sheet name="VerifyCancelLabelAutopayCC" r:id="rId37" sheetId="38"/>
-    <sheet name="VerifyCancelLabelAutopayPC" r:id="rId38" sheetId="39"/>
-    <sheet name="VerifyCancelLabelAutopayPS" r:id="rId39" sheetId="40"/>
-    <sheet name="VerifyCreateLabelAutopayPS" r:id="rId40" sheetId="32"/>
+    <sheet name="VerifyReceiptPageDataCC" r:id="rId9" sheetId="41"/>
+    <sheet name="VerifyCreateLabelDeferredCorp" r:id="rId10" sheetId="9"/>
+    <sheet name="VerifyCancelLabelDeferredCorp" r:id="rId11" sheetId="10"/>
+    <sheet name="VerifyEditLabelDeferredCorp" r:id="rId12" sheetId="11"/>
+    <sheet name="VerifyCreateLabelDeferredPS" r:id="rId13" sheetId="15"/>
+    <sheet name="VerifyEditLabelDeferredPS" r:id="rId14" sheetId="16"/>
+    <sheet name="VerifyCancelLabelDeferredPS" r:id="rId15" sheetId="17"/>
+    <sheet name="VerifyCreateLabelDeferredCredit" r:id="rId16" sheetId="18"/>
+    <sheet name="VerifyEditLabelDeferredCredit" r:id="rId17" sheetId="19"/>
+    <sheet name="VerifyCancelLabelDeferredCredit" r:id="rId18" sheetId="20"/>
+    <sheet name="VerifyCreateLabelDeferredPC" r:id="rId19" sheetId="12"/>
+    <sheet name="VerifyEditLabelDeferredPC" r:id="rId20" sheetId="13"/>
+    <sheet name="VerifyCancelLabelDeferredPC" r:id="rId21" sheetId="14"/>
+    <sheet name="CMCDeferredPlanPS" r:id="rId22" sheetId="6"/>
+    <sheet name="CMCDeferredPlanCredit" r:id="rId23" sheetId="5"/>
+    <sheet name="CMCDeferredPlanPC" r:id="rId24" sheetId="7"/>
+    <sheet name="CMCDeferredPlanCorp" r:id="rId25" sheetId="8"/>
+    <sheet name="CMCAutoPayPlanCorp" r:id="rId26" sheetId="25"/>
+    <sheet name="CMCAutoPayPlanCredit" r:id="rId27" sheetId="26"/>
+    <sheet name="CMCAutoPayPlanPC" r:id="rId28" sheetId="27"/>
+    <sheet name="CMCAutoPayPlanPS" r:id="rId29" sheetId="28"/>
+    <sheet name="VerifyCreateLabelAutopayCorp" r:id="rId30" sheetId="29"/>
+    <sheet name="VerifyCreateLabelAutopayCC" r:id="rId31" sheetId="30"/>
+    <sheet name="VerifyCreateLabelAutopayPC" r:id="rId32" sheetId="31"/>
+    <sheet name="VerifyEditLabelAutopayCorp" r:id="rId33" sheetId="33"/>
+    <sheet name="VerifyEditLabelAutopayCC" r:id="rId34" sheetId="34"/>
+    <sheet name="VerifyEditLabelAutopayPS" r:id="rId35" sheetId="35"/>
+    <sheet name="VerifyEditLabelAutopayPC" r:id="rId36" sheetId="36"/>
+    <sheet name="VerifyCancelLabelAutopayCorp" r:id="rId37" sheetId="37"/>
+    <sheet name="VerifyCancelLabelAutopayCC" r:id="rId38" sheetId="38"/>
+    <sheet name="VerifyCancelLabelAutopayPC" r:id="rId39" sheetId="39"/>
+    <sheet name="VerifyCancelLabelAutopayPS" r:id="rId40" sheetId="40"/>
+    <sheet name="VerifyCreateLabelAutopayPS" r:id="rId41" sheetId="32"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="163">
   <si>
     <t>Result</t>
   </si>
@@ -279,9 +280,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Mon Oct 07 19:07:28 IST 2024</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -300,93 +298,6 @@
     <t>Mon Oct 14 21:01:04 IST 2024</t>
   </si>
   <si>
-    <t>Tue Oct 15 04:14:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:15:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:17:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:18:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:20:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:21:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:23:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:24:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:26:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:27:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:29:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:31:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:33:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:35:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:37:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:39:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:41:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:42:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:47:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:48:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:50:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:51:40 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:53:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:54:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:57:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:59:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:00:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:02:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:03:37 IST 2024</t>
-  </si>
-  <si>
     <t>Tue Oct 15 07:08:50 IST 2024</t>
   </si>
   <si>
@@ -411,27 +322,6 @@
     <t>Tue Oct 15 07:20:13 IST 2024</t>
   </si>
   <si>
-    <t>Tue Oct 15 07:22:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:23:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:25:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:27:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:29:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:33:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:35:47 IST 2024</t>
-  </si>
-  <si>
     <t>Tue Oct 15 07:46:10 IST 2024</t>
   </si>
   <si>
@@ -456,30 +346,6 @@
     <t>Tue Oct 15 07:55:55 IST 2024</t>
   </si>
   <si>
-    <t>Tue Oct 15 07:57:40 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:58:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:00:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:01:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:03:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:04:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:06:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:07:20 IST 2024</t>
-  </si>
-  <si>
     <t>Tue Oct 15 08:09:04 IST 2024</t>
   </si>
   <si>
@@ -504,133 +370,190 @@
     <t>Tue Oct 15 08:19:59 IST 2024</t>
   </si>
   <si>
-    <t>Tue Oct 15 08:31:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:32:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 20:33:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 20:35:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 21:11:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 21:15:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 21:16:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 21:18:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 21:20:13 IST 2024</t>
+    <t>Fri Oct 25 00:16:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:18:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:20:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:22:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:24:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:26:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:29:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:30:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:45:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:47:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:48:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:50:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:53:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:54:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:57:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:58:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:01:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:03:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:05:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:07:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:09:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:11:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:13:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:15:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:34:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:36:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:38:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:40:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:42:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:43:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:46:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:47:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:50:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:51:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:54:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:55:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:57:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:59:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:01:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:03:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:05:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:07:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:09:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:13:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:14:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:17:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:18:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:21:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:23:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:25:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:27:31 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:29:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:31:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:33:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Pay Now Credit Card Yes Emulator Data</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Tue Oct 15 21:26:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 21:27:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 21:31:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 21:32:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 00:19:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 00:37:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 17:59:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:01:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:16:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:18:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:22:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:23:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:26:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:28:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:31:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:37:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:38:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:42:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:43:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:49:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:50:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:53:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:54:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 18:58:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 19:00:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 19:04:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 19:05:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 19:12:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 19:13:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 19:17:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 19:18:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 19:21:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 19:22:43 IST 2024</t>
+    <t>Wed Oct 30 14:43:31 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 30 14:45:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 30 14:48:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 30 14:50:17 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1023,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1186,7 +1109,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1195,13 +1118,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -1271,6 +1194,279 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460D88B6-A386-4846-BE51-48B1BF32CF9B}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A45949-68BF-404E-8F7F-FB2E9E2F425C}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -1371,7 +1567,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1457,7 +1653,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1466,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -1543,7 +1739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4B946A-2C4C-46EF-93A1-2FF7963F4F9C}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -1649,7 +1845,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1737,7 +1933,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1746,13 +1942,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -1824,7 +2020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB1C7FA-E6AE-425E-93E9-7344162BF220}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -1934,7 +2130,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2029,7 +2225,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2038,13 +2234,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -2124,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F90F0E-2E15-46C5-95C8-91EEE2324B31}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
@@ -2242,7 +2438,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2339,7 +2535,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2348,13 +2544,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -2435,7 +2631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6083FB1-02F1-48D6-92EE-3F1FBC7D79B0}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -2545,7 +2741,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2640,7 +2836,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2649,13 +2845,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -2735,7 +2931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF9C0F3-0DA7-44CD-B9A8-E552BD6DF9FF}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -2842,7 +3038,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2931,7 +3127,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -2940,13 +3136,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -3017,12 +3213,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F02A9F4-7828-4F92-A71A-133EDBD34118}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3122,7 +3318,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3210,7 +3406,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3219,13 +3415,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -3297,7 +3493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305C12C-5443-4486-B7D9-3C403F6F0EF8}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -3398,7 +3594,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3484,7 +3680,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3493,13 +3689,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -3570,7 +3766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6314CBCE-7A5E-4A0C-AF29-C3F1F0871FFF}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -3680,7 +3876,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3775,7 +3971,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3784,13 +3980,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -3864,317 +4060,6 @@
       <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9259111-57D2-4ED8-A106-9387F81FA5DC}">
-  <dimension ref="A1:AI3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-    </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" s="2"/>
-      <c r="AH2" s="4"/>
-    </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4305,7 +4190,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4400,7 +4285,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4409,13 +4294,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -4494,6 +4379,317 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9259111-57D2-4ED8-A106-9387F81FA5DC}">
+  <dimension ref="A1:AI3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AH2" s="4"/>
+    </row>
+    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E446BF9-B02F-4740-AE83-9C5B060028BD}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -4603,7 +4799,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4698,7 +4894,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4707,13 +4903,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -4793,7 +4989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5776B0E-DB55-4350-9FD4-A6F4560407FB}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
@@ -4906,7 +5102,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5000,7 +5196,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5009,13 +5205,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -5094,7 +5290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAED720-8B00-473F-B284-AD53190F508A}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -5195,7 +5391,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5279,7 +5475,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5288,13 +5484,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -5363,7 +5559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1473DEC-6EE5-4076-9D5F-5EF76D644876}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
@@ -5476,7 +5672,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5570,7 +5766,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5579,13 +5775,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -5664,7 +5860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A2BFFF-8CE2-4286-9146-DB049A020FA4}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
@@ -5768,7 +5964,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5853,7 +6049,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5862,13 +6058,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -5938,7 +6134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD943804-0444-45BD-878A-2DB8B5C8234B}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
@@ -6039,10 +6235,10 @@
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6123,7 +6319,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6132,13 +6328,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -6204,7 +6400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C6E4E3-FEB0-4C8B-8567-D979A0CFEDEF}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -6305,7 +6501,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6385,7 +6581,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6394,13 +6590,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -6465,7 +6661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE49C93-4BD2-4356-A28C-773B8D671B0F}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -6572,10 +6768,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6664,7 +6860,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6673,13 +6869,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -6753,7 +6949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0FF61A-DB8D-4A74-B78B-03F8F9F8B349}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -6860,10 +7056,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6952,7 +7148,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6961,13 +7157,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -7033,271 +7229,6 @@
         <v>26</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BB3CFB-F620-4173-A70F-13BA05E908A1}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7419,7 +7350,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7514,7 +7445,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7523,13 +7454,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -7608,6 +7539,271 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BB3CFB-F620-4173-A70F-13BA05E908A1}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D02957-4C1C-4B36-8539-E094F8816C63}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -7708,7 +7904,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7790,7 +7986,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -7799,13 +7995,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -7872,7 +8068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB69706-E238-4434-A63F-310C1977C6F0}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -7982,7 +8178,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8073,7 +8269,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8082,13 +8278,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -8164,7 +8360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3025D6A-7D6F-4C6F-96B5-791B34BCC219}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -8265,7 +8461,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8347,7 +8543,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8356,13 +8552,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -8429,7 +8625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87FB397-5204-4FE3-B53C-72270511A532}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -8530,7 +8726,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8612,7 +8808,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -8621,13 +8817,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -8694,7 +8890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49FB132-06F3-42B4-B1F9-A19038A385CE}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -8804,7 +9000,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8895,7 +9091,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8904,13 +9100,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -8986,7 +9182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72A2B1-158A-4CBE-92BF-97BEEB618388}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -9096,7 +9292,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9187,7 +9383,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9196,13 +9392,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -9278,7 +9474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49C59E-95FC-4A4C-AF9C-FF331A4E9E2C}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -9379,7 +9575,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9461,7 +9657,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9470,13 +9666,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -9543,7 +9739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0AE3F5-1EA2-4637-B154-6C76E01F26D3}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -9644,7 +9840,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9726,7 +9922,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9735,13 +9931,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -9808,7 +10004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD921781-5791-4926-9100-5C0AAE19E7EB}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -9918,7 +10114,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10009,7 +10205,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10018,13 +10214,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -10100,7 +10296,285 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" style="2" width="8.77734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="1"/>
+    </row>
+    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2214AEC-363E-46E4-BBEE-32CDF3D3A6A4}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -10210,7 +10684,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10301,7 +10775,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10310,13 +10784,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -10392,285 +10866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" style="2" width="8.77734375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="1"/>
-    </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="1"/>
-    </row>
-    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635B70C7-5F0C-49BF-B62E-2D9C67AF607B}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -10780,7 +10976,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10871,7 +11067,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10880,13 +11076,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -11069,10 +11265,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11152,7 +11348,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11161,13 +11357,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -11330,10 +11526,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11413,7 +11609,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11422,13 +11618,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -11600,10 +11796,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11692,7 +11888,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11701,13 +11897,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -11888,10 +12084,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11980,7 +12176,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11989,13 +12185,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -12070,11 +12266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460D88B6-A386-4846-BE51-48B1BF32CF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59C18C8-BC16-4EF9-ABC9-D44DBC5FD391}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12135,19 +12331,19 @@
         <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>68</v>
@@ -12167,175 +12363,115 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="181">
   <si>
     <t>Result</t>
   </si>
@@ -554,6 +554,60 @@
   </si>
   <si>
     <t>Wed Oct 30 14:50:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 14:09:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 14:10:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 18:57:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 18:58:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:00:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:01:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:02:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:03:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:04:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:05:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:07:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:08:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:09:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:11:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:12:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:13:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:14:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:15:54 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1077,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1106,10 +1160,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4190,7 +4244,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4282,10 +4336,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7350,7 +7404,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7442,10 +7496,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10402,7 +10456,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10487,7 +10541,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11265,10 +11319,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11345,10 +11399,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11526,10 +11580,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11609,7 +11663,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11796,10 +11850,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11885,10 +11939,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12084,10 +12138,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12173,10 +12227,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C4BFA823-FF9D-47E7-8388-2160B1142FF2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7F143880-D589-4840-A6E8-EE7456AF6FD8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="8" firstSheet="6" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="4" firstSheet="3" windowHeight="11490" windowWidth="15330" xWindow="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2670"/>
   </bookViews>
   <sheets>
     <sheet name="CCDeferredPlanCorp" r:id="rId1" sheetId="4"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="219">
   <si>
     <t>Result</t>
   </si>
@@ -442,54 +442,6 @@
     <t>Fri Oct 25 01:15:55 IST 2024</t>
   </si>
   <si>
-    <t>Fri Oct 25 01:34:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:36:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:38:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:40:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:42:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:43:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:46:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:47:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:50:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:51:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:54:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:55:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:57:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:59:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:01:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:03:34 IST 2024</t>
-  </si>
-  <si>
     <t>Fri Oct 25 02:05:50 IST 2024</t>
   </si>
   <si>
@@ -541,73 +493,235 @@
     <t>15</t>
   </si>
   <si>
+    <t>Wed Oct 30 14:48:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 30 14:50:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 18:57:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 18:58:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:00:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:01:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:02:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:03:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:04:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:05:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:07:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:08:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:09:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:11:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:12:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:13:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:14:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:15:54 EST 2024</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Oct 30 14:43:31 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 14:45:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 14:48:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 14:50:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 14:09:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 14:10:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 18:57:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 18:58:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:00:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:01:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:02:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:03:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:04:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:05:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:07:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:08:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:09:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:11:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:12:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:13:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:14:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:15:54 EST 2024</t>
+    <t>Mon Jan 20 19:57:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 19:58:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 19:59:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:00:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:01:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:02:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:04:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:05:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:07:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:08:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:10:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:11:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:12:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:13:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:15:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:16:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:16:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:17:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:18:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:20:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:21:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:22:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:24:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:25:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:34:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:35:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:36:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:37:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:39:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:40:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:41:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:42:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:44:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:45:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:46:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:47:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:49:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:50:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:52:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:53:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:12:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:13:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:15:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:16:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:17:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:18:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:22:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:23:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:24:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:25:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:26:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:27:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:28:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:30:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:31:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:32:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:34:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:35:17 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -977,13 +1091,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,12 +1186,12 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1158,12 +1272,12 @@
       <c r="AC2" s="2"/>
       <c r="AE2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1255,9 +1369,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,12 +1457,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1429,12 +1543,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1528,9 +1642,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,12 +1730,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1702,12 +1816,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1801,9 +1915,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,12 +2008,12 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1982,12 +2096,12 @@
       <c r="AC2" s="2"/>
       <c r="AE2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2082,9 +2196,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2179,12 +2293,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2274,12 +2388,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2382,12 +2496,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2487,12 +2601,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2584,12 +2698,12 @@
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2693,9 +2807,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2790,12 +2904,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2885,12 +2999,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2993,12 +3107,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3087,12 +3201,12 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3176,12 +3290,12 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3275,9 +3389,9 @@
       <selection sqref="A1:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3367,12 +3481,12 @@
       </c>
       <c r="AD1" s="1"/>
     </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3455,12 +3569,12 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3555,9 +3669,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3643,12 +3757,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3729,12 +3843,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3828,9 +3942,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3925,12 +4039,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4020,12 +4134,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4128,20 +4242,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" style="2" width="8.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.77734375" collapsed="true"/>
-    <col min="8" max="22" style="2" width="8.77734375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="9.77734375" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" style="2" width="8.77734375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.77734375" collapsed="true"/>
-    <col min="27" max="31" style="2" width="8.77734375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.77734375" collapsed="true"/>
-    <col min="33" max="16384" style="2" width="8.77734375" collapsed="true"/>
+    <col min="1" max="6" style="2" width="8.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
+    <col min="8" max="22" style="2" width="8.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="27" max="31" style="2" width="8.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
+    <col min="33" max="16384" style="2" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4239,12 +4353,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4334,12 +4448,12 @@
       <c r="AG2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4440,12 +4554,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4545,12 +4659,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4642,12 +4756,12 @@
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4751,9 +4865,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4848,12 +4962,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4943,12 +5057,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5051,9 +5165,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5151,12 +5265,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5245,12 +5359,12 @@
       </c>
       <c r="AF2" s="2"/>
     </row>
-    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5352,9 +5466,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5440,12 +5554,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5524,12 +5638,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5621,9 +5735,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5721,7 +5835,7 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -5815,12 +5929,12 @@
       </c>
       <c r="AF2" s="2"/>
     </row>
-    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5922,9 +6036,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6013,12 +6127,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6098,12 +6212,12 @@
       </c>
       <c r="AC2" s="2"/>
     </row>
-    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6196,9 +6310,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6287,12 +6401,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6368,12 +6482,12 @@
       </c>
       <c r="AC2" s="2"/>
     </row>
-    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6462,9 +6576,9 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6550,12 +6664,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6630,7 +6744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -6723,9 +6837,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6820,12 +6934,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6909,12 +7023,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7011,9 +7125,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7108,12 +7222,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7197,12 +7311,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7299,9 +7413,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7399,12 +7513,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7494,12 +7608,12 @@
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7600,9 +7714,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7688,7 +7802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -7770,7 +7884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -7865,9 +7979,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7953,7 +8067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -8035,7 +8149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -8130,9 +8244,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8227,7 +8341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -8318,7 +8432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -8422,9 +8536,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8510,7 +8624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -8592,7 +8706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -8687,9 +8801,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8775,7 +8889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -8857,7 +8971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -8952,9 +9066,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9049,7 +9163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -9140,7 +9254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -9244,9 +9358,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9341,7 +9455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -9432,7 +9546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -9536,9 +9650,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9624,7 +9738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -9706,7 +9820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -9801,9 +9915,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9889,7 +10003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -9971,7 +10085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -10066,9 +10180,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10163,7 +10277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -10254,7 +10368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -10358,12 +10472,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="2" width="8.77734375" collapsed="true"/>
+    <col min="1" max="16384" style="2" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10451,12 +10565,12 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="1"/>
     </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10536,12 +10650,12 @@
       </c>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10636,9 +10750,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10733,7 +10847,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -10824,7 +10938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -10928,9 +11042,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11025,7 +11139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -11116,7 +11230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -11216,22 +11330,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69CD0F-BD47-4004-A91B-17A22C7F7735}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="6" style="2" width="8.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
-    <col min="8" max="19" style="2" width="8.88671875" collapsed="true"/>
+    <col min="8" max="19" style="2" width="8.85546875" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
     <col min="21" max="22" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="24" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="24" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11317,12 +11431,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11397,12 +11511,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11490,9 +11604,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11578,12 +11692,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11658,12 +11772,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11751,9 +11865,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11848,12 +11962,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11937,12 +12051,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12039,9 +12153,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12136,12 +12250,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12225,12 +12339,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12323,13 +12437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59C18C8-BC16-4EF9-ABC9-D44DBC5FD391}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12415,21 +12529,21 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -12471,21 +12585,21 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>72</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="243">
   <si>
     <t>Result</t>
   </si>
@@ -608,6 +608,192 @@
   </si>
   <si>
     <t>Tue Dec 03 19:15:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 21:39:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 21:42:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 21:46:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 21:49:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 21:53:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 21:56:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 22:00:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 22:03:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 22:06:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 22:10:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 22:13:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 22:17:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:10:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:11:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:13:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:14:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:16:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:17:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:19:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:20:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:22:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:23:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:24:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:25:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:27:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:28:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:30:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:31:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:32:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:34:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:36:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:38:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:39:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:40:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:42:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:43:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:45:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:46:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:48:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:49:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:50:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:51:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:53:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:54:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:56:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:57:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 14:59:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:00:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:01:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:02:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:04:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:05:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:08:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:13:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:16:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:17:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:19:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:20:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:22:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:23:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:24:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 15:26:18 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1263,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1163,7 +1349,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1348,7 +1534,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1431,10 +1617,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1621,7 +1807,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1704,10 +1890,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1899,7 +2085,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1984,10 +2170,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2184,7 +2370,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2276,10 +2462,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2492,7 +2678,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2586,10 +2772,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2795,7 +2981,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2887,10 +3073,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3092,7 +3278,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3181,7 +3367,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3372,7 +3558,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3460,7 +3646,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3648,7 +3834,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3734,7 +3920,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3930,7 +4116,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4022,10 +4208,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4244,7 +4430,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4339,7 +4525,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4550,7 +4736,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4644,10 +4830,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4853,7 +5039,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4945,10 +5131,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5156,7 +5342,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5247,10 +5433,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5445,7 +5631,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5529,7 +5715,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5817,10 +6003,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6018,7 +6204,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6100,10 +6286,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6370,10 +6556,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6911,10 +7097,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7199,10 +7385,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7404,7 +7590,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7499,7 +7685,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10456,7 +10642,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10541,7 +10727,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11322,7 +11508,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11402,7 +11588,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11583,7 +11769,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11663,7 +11849,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11853,7 +12039,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11942,7 +12128,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12141,7 +12327,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12230,7 +12416,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C4BFA823-FF9D-47E7-8388-2160B1142FF2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7F143880-D589-4840-A6E8-EE7456AF6FD8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="8" firstSheet="6" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="4" firstSheet="3" windowHeight="11490" windowWidth="15330" xWindow="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2670"/>
   </bookViews>
   <sheets>
     <sheet name="CCDeferredPlanCorp" r:id="rId1" sheetId="4"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="219">
   <si>
     <t>Result</t>
   </si>
@@ -442,54 +442,6 @@
     <t>Fri Oct 25 01:15:55 IST 2024</t>
   </si>
   <si>
-    <t>Fri Oct 25 01:34:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:36:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:38:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:40:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:42:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:43:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:46:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:47:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:50:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:51:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:54:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:55:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:57:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:59:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:01:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:03:34 IST 2024</t>
-  </si>
-  <si>
     <t>Fri Oct 25 02:05:50 IST 2024</t>
   </si>
   <si>
@@ -541,259 +493,235 @@
     <t>15</t>
   </si>
   <si>
+    <t>Wed Oct 30 14:48:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 30 14:50:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 18:57:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 18:58:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:00:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:01:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:02:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:03:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:04:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:05:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:07:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:08:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:09:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:11:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:12:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:13:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:14:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:15:54 EST 2024</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Oct 30 14:43:31 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 14:45:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 14:48:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 14:50:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 14:09:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 14:10:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 18:57:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 18:58:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:00:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:01:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:02:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:03:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:04:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:05:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:07:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:08:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:09:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:11:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:12:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:13:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:14:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:15:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 21:39:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 21:42:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 21:46:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 21:49:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 21:53:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 21:56:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 22:00:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 22:03:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 22:06:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 22:10:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 22:13:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 22:17:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:10:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:11:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:13:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:14:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:16:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:17:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:19:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:20:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:22:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:23:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:24:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:25:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:27:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:28:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:30:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:31:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:32:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:34:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:36:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:38:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:39:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:40:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:42:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:43:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:45:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:46:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:48:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:49:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:50:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:51:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:53:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:54:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:56:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:57:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 14:59:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:00:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:01:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:02:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:04:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:05:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:08:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:13:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:16:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:17:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:19:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:20:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:22:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:23:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:24:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 15:26:18 IST 2025</t>
+    <t>Mon Jan 20 19:57:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 19:58:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 19:59:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:00:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:01:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:02:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:04:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:05:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:07:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:08:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:10:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:11:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:12:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:13:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:15:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 20:16:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:16:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:17:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:18:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:20:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:21:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:22:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:24:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:25:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:34:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:35:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:36:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:37:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:39:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:40:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:41:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:42:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:44:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:45:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:46:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:47:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:49:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:50:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:52:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:53:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:12:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:13:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:15:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:16:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:17:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:18:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:22:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:23:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:24:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:25:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:26:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:27:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:28:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:30:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:31:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:32:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:34:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:35:17 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1163,13 +1091,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,12 +1186,12 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1344,12 +1272,12 @@
       <c r="AC2" s="2"/>
       <c r="AE2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1441,9 +1369,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,12 +1457,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1615,12 +1543,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1714,9 +1642,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1802,12 +1730,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1888,12 +1816,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1987,9 +1915,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2080,12 +2008,12 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2168,12 +2096,12 @@
       <c r="AC2" s="2"/>
       <c r="AE2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2268,9 +2196,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2365,12 +2293,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2460,12 +2388,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2568,12 +2496,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2673,12 +2601,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2770,12 +2698,12 @@
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2879,9 +2807,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2976,12 +2904,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3071,12 +2999,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3179,12 +3107,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3273,12 +3201,12 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3362,12 +3290,12 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3461,9 +3389,9 @@
       <selection sqref="A1:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3553,12 +3481,12 @@
       </c>
       <c r="AD1" s="1"/>
     </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3641,12 +3569,12 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3741,9 +3669,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3829,12 +3757,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3915,12 +3843,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4014,9 +3942,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4111,12 +4039,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4206,12 +4134,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4314,20 +4242,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" style="2" width="8.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.77734375" collapsed="true"/>
-    <col min="8" max="22" style="2" width="8.77734375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="9.77734375" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" style="2" width="8.77734375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.77734375" collapsed="true"/>
-    <col min="27" max="31" style="2" width="8.77734375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.77734375" collapsed="true"/>
-    <col min="33" max="16384" style="2" width="8.77734375" collapsed="true"/>
+    <col min="1" max="6" style="2" width="8.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
+    <col min="8" max="22" style="2" width="8.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
+    <col min="27" max="31" style="2" width="8.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
+    <col min="33" max="16384" style="2" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4425,12 +4353,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4520,12 +4448,12 @@
       <c r="AG2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4626,12 +4554,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4731,12 +4659,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4828,12 +4756,12 @@
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4937,9 +4865,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5034,12 +4962,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5129,12 +5057,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5237,9 +5165,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5337,12 +5265,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5431,12 +5359,12 @@
       </c>
       <c r="AF2" s="2"/>
     </row>
-    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5538,9 +5466,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5626,12 +5554,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5710,12 +5638,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5807,9 +5735,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5907,7 +5835,7 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -6001,12 +5929,12 @@
       </c>
       <c r="AF2" s="2"/>
     </row>
-    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6108,9 +6036,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6199,12 +6127,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6284,12 +6212,12 @@
       </c>
       <c r="AC2" s="2"/>
     </row>
-    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6382,9 +6310,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6473,12 +6401,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6554,12 +6482,12 @@
       </c>
       <c r="AC2" s="2"/>
     </row>
-    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6648,9 +6576,9 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6736,12 +6664,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6816,7 +6744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -6909,9 +6837,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7006,12 +6934,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7095,12 +7023,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7197,9 +7125,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7294,12 +7222,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7383,12 +7311,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7485,9 +7413,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7585,12 +7513,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7680,12 +7608,12 @@
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7786,9 +7714,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7874,7 +7802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -7956,7 +7884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -8051,9 +7979,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8139,7 +8067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -8221,7 +8149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -8316,9 +8244,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8413,7 +8341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -8504,7 +8432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -8608,9 +8536,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8696,7 +8624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -8778,7 +8706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -8873,9 +8801,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8961,7 +8889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -9043,7 +8971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -9138,9 +9066,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9235,7 +9163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -9326,7 +9254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -9430,9 +9358,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9527,7 +9455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -9618,7 +9546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -9722,9 +9650,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9810,7 +9738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -9892,7 +9820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -9987,9 +9915,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10075,7 +10003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -10157,7 +10085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -10252,9 +10180,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10349,7 +10277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -10440,7 +10368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -10544,12 +10472,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="2" width="8.77734375" collapsed="true"/>
+    <col min="1" max="16384" style="2" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10637,12 +10565,12 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="1"/>
     </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10722,12 +10650,12 @@
       </c>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10822,9 +10750,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10919,7 +10847,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -11010,7 +10938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -11114,9 +11042,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11211,7 +11139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -11302,7 +11230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -11402,22 +11330,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69CD0F-BD47-4004-A91B-17A22C7F7735}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="6" style="2" width="8.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
-    <col min="8" max="19" style="2" width="8.88671875" collapsed="true"/>
+    <col min="8" max="19" style="2" width="8.85546875" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
     <col min="21" max="22" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="24" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="24" max="16384" style="2" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11503,12 +11431,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11583,12 +11511,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11676,9 +11604,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11764,12 +11692,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11844,12 +11772,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11937,9 +11865,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12034,12 +11962,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12123,12 +12051,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12225,9 +12153,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12322,12 +12250,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12411,12 +12339,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12509,13 +12437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59C18C8-BC16-4EF9-ABC9-D44DBC5FD391}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12601,21 +12529,21 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -12657,21 +12585,21 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>72</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4628" uniqueCount="513">
   <si>
     <t>Result</t>
   </si>
@@ -722,6 +722,888 @@
   </si>
   <si>
     <t>Fri Jan 24 14:35:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 13:53:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 13:54:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 13:56:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 13:57:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 13:58:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:00:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:01:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:02:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:04:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:05:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:06:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:07:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:09:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:10:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:11:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:12:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:14:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:15:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:17:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:18:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:20:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:21:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:23:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:24:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:25:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:27:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:28:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:29:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:30:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:32:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:33:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:34:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:36:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:37:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:38:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:39:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:41:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:42:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:43:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:45:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:56:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:57:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 14:59:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:00:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:01:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:03:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:04:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:06:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:07:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:08:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:10:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:11:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:13:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:14:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:16:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 15:17:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:00:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:02:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:03:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:05:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:06:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:07:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:09:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:10:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:11:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:13:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:14:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:15:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:16:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:17:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:19:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:20:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:21:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:23:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:24:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:25:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:27:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:28:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:30:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:31:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:33:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:34:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:35:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:37:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:38:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:39:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:41:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:42:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:43:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:44:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:46:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:47:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:48:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:49:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:51:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 16:52:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:03:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:05:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:06:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:07:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:09:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:10:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:12:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:13:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:14:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:16:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:17:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:19:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:20:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:22:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:23:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:25:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:26:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:27:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:28:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:29:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:31:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:32:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:33:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:34:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:35:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:37:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:38:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:39:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:41:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:42:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 10 17:43:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:53:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:55:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:56:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:57:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:59:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:00:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:01:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:03:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:13:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:14:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:15:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:16:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:18:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:19:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:20:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:21:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:23:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:24:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:25:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:27:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:28:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:30:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:31:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:32:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:44:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:46:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:47:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:48:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:50:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:51:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:52:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:53:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:55:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:56:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:57:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:58:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:00:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:01:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:02:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:03:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:15:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:16:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:17:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:19:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:20:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:21:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:23:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:11:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:12:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:14:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:15:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:17:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:18:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:19:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:21:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:22:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:24:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:25:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:26:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:27:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:28:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:29:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:31:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:32:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:33:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:35:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:36:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:37:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:39:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:40:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:41:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:42:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:43:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:09:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:15:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:17:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:51:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:53:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:55:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:57:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:59:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 21:00:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 19:19:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 28 19:21:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 04 21:07:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 04 21:09:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:01:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:03:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:04:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:06:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:07:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:08:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:10:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:11:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:22:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:24:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:25:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:26:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:27:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:29:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:30:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:31:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:32:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:34:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:35:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:37:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:38:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:39:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:41:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:42:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:55:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:56:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:57:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:59:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:00:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:02:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:04:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:06:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:08:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:09:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:10:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:12:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:13:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:14:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:16:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:17:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:18:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:19:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:20:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:22:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:25:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:27:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:28:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:30:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:31:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:32:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:35:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:36:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:37:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:39:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:40:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:30:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:33:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:34:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:37:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:38:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:41:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:42:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:44:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:45:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:47:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:48:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:49:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:51:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:53:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:54:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:55:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:57:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:58:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:59:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 03:01:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 03:02:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 03:05:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 03:07:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 03:08:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 03:10:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 03:12:25 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +2073,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>464</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1277,7 +2159,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>465</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1462,7 +2344,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>442</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1548,7 +2430,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>443</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1735,7 +2617,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>434</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1821,7 +2703,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>435</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2013,7 +2895,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>450</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2101,7 +2983,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>451</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2298,7 +3180,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>446</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2393,7 +3275,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>447</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2606,7 +3488,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>454</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2703,7 +3585,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>455</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2909,7 +3791,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>438</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3004,7 +3886,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>439</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3206,7 +4088,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>440</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3295,7 +4177,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>441</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3486,7 +4368,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>448</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3574,7 +4456,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>449</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3762,7 +4644,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3848,7 +4730,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4044,7 +4926,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4139,7 +5021,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4358,7 +5240,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>483</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4453,7 +5335,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>484</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4664,7 +5546,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>452</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4761,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>453</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4967,7 +5849,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>436</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5062,7 +5944,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>437</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5270,7 +6152,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5364,7 +6246,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>486</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5556,10 +6438,10 @@
     </row>
     <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>481</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5643,7 +6525,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>482</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5840,7 +6722,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5934,7 +6816,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>421</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6132,7 +7014,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>479</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6217,7 +7099,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>480</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6406,7 +7288,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>472</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6487,7 +7369,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>473</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6669,7 +7551,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>474</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6746,10 +7628,10 @@
     </row>
     <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>475</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -7028,7 +7910,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>476</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7224,10 +8106,10 @@
     </row>
     <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>477</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7316,7 +8198,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>478</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7518,7 +8400,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>470</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7613,7 +8495,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>471</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7807,7 +8689,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>497</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7889,7 +8771,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>498</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8072,7 +8954,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>495</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8154,7 +9036,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>496</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -8343,10 +9225,10 @@
     </row>
     <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>499</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8437,7 +9319,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8626,10 +9508,10 @@
     </row>
     <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>505</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8708,10 +9590,10 @@
     </row>
     <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>506</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8894,7 +9776,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>503</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8976,7 +9858,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>504</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9165,10 +10047,10 @@
     </row>
     <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>509</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9256,10 +10138,10 @@
     </row>
     <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9457,10 +10339,10 @@
     </row>
     <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>507</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9548,10 +10430,10 @@
     </row>
     <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9740,10 +10622,10 @@
     </row>
     <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9822,10 +10704,10 @@
     </row>
     <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10005,10 +10887,10 @@
     </row>
     <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10087,10 +10969,10 @@
     </row>
     <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10279,10 +11161,10 @@
     </row>
     <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10370,10 +11252,10 @@
     </row>
     <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10567,10 +11449,10 @@
     </row>
     <row ht="75" r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>466</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10655,7 +11537,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>467</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10849,10 +11731,10 @@
     </row>
     <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>493</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10940,10 +11822,10 @@
     </row>
     <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>494</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11144,7 +12026,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>501</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11235,7 +12117,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>502</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11433,10 +12315,10 @@
     </row>
     <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>456</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11516,7 +12398,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>457</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11697,7 +12579,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>458</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11777,7 +12659,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>459</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11964,10 +12846,10 @@
     </row>
     <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>460</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12056,7 +12938,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>461</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12255,7 +13137,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>462</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12344,7 +13226,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>463</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12534,7 +13416,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>511</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>139</v>
@@ -12590,7 +13472,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>512</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>139</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{7F143880-D589-4840-A6E8-EE7456AF6FD8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EE59EE46-5ACC-45FB-BE43-FE77F1884AE6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="3" windowHeight="11490" windowWidth="15330" xWindow="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2670"/>
+    <workbookView activeTab="12" firstSheet="10" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="CCDeferredPlanCorp" r:id="rId1" sheetId="4"/>
@@ -22,38 +22,41 @@
     <sheet name="CCAutoPayPlanPC" r:id="rId7" sheetId="23"/>
     <sheet name="CCAutoPayPlanPS" r:id="rId8" sheetId="24"/>
     <sheet name="VerifyReceiptPageDataCC" r:id="rId9" sheetId="41"/>
-    <sheet name="VerifyCreateLabelDeferredCorp" r:id="rId10" sheetId="9"/>
-    <sheet name="VerifyCancelLabelDeferredCorp" r:id="rId11" sheetId="10"/>
-    <sheet name="VerifyEditLabelDeferredCorp" r:id="rId12" sheetId="11"/>
-    <sheet name="VerifyCreateLabelDeferredPS" r:id="rId13" sheetId="15"/>
-    <sheet name="VerifyEditLabelDeferredPS" r:id="rId14" sheetId="16"/>
-    <sheet name="VerifyCancelLabelDeferredPS" r:id="rId15" sheetId="17"/>
-    <sheet name="VerifyCreateLabelDeferredCredit" r:id="rId16" sheetId="18"/>
-    <sheet name="VerifyEditLabelDeferredCredit" r:id="rId17" sheetId="19"/>
-    <sheet name="VerifyCancelLabelDeferredCredit" r:id="rId18" sheetId="20"/>
-    <sheet name="VerifyCreateLabelDeferredPC" r:id="rId19" sheetId="12"/>
-    <sheet name="VerifyEditLabelDeferredPC" r:id="rId20" sheetId="13"/>
-    <sheet name="VerifyCancelLabelDeferredPC" r:id="rId21" sheetId="14"/>
-    <sheet name="CMCDeferredPlanPS" r:id="rId22" sheetId="6"/>
-    <sheet name="CMCDeferredPlanCredit" r:id="rId23" sheetId="5"/>
-    <sheet name="CMCDeferredPlanPC" r:id="rId24" sheetId="7"/>
-    <sheet name="CMCDeferredPlanCorp" r:id="rId25" sheetId="8"/>
-    <sheet name="CMCAutoPayPlanCorp" r:id="rId26" sheetId="25"/>
-    <sheet name="CMCAutoPayPlanCredit" r:id="rId27" sheetId="26"/>
-    <sheet name="CMCAutoPayPlanPC" r:id="rId28" sheetId="27"/>
-    <sheet name="CMCAutoPayPlanPS" r:id="rId29" sheetId="28"/>
-    <sheet name="VerifyCreateLabelAutopayCorp" r:id="rId30" sheetId="29"/>
-    <sheet name="VerifyCreateLabelAutopayCC" r:id="rId31" sheetId="30"/>
-    <sheet name="VerifyCreateLabelAutopayPC" r:id="rId32" sheetId="31"/>
-    <sheet name="VerifyEditLabelAutopayCorp" r:id="rId33" sheetId="33"/>
-    <sheet name="VerifyEditLabelAutopayCC" r:id="rId34" sheetId="34"/>
-    <sheet name="VerifyEditLabelAutopayPS" r:id="rId35" sheetId="35"/>
-    <sheet name="VerifyEditLabelAutopayPC" r:id="rId36" sheetId="36"/>
-    <sheet name="VerifyCancelLabelAutopayCorp" r:id="rId37" sheetId="37"/>
-    <sheet name="VerifyCancelLabelAutopayCC" r:id="rId38" sheetId="38"/>
-    <sheet name="VerifyCancelLabelAutopayPC" r:id="rId39" sheetId="39"/>
-    <sheet name="VerifyCancelLabelAutopayPS" r:id="rId40" sheetId="40"/>
-    <sheet name="VerifyCreateLabelAutopayPS" r:id="rId41" sheetId="32"/>
+    <sheet name="VerifyReceiptPageDataCorp" r:id="rId10" sheetId="42"/>
+    <sheet name="VerifyReceiptPageDataPC" r:id="rId11" sheetId="43"/>
+    <sheet name="VerifyCreateLabelDeferredCorp" r:id="rId12" sheetId="9"/>
+    <sheet name="VerifyReceiptPageDataPS" r:id="rId13" sheetId="44"/>
+    <sheet name="VerifyCancelLabelDeferredCorp" r:id="rId14" sheetId="10"/>
+    <sheet name="VerifyEditLabelDeferredCorp" r:id="rId15" sheetId="11"/>
+    <sheet name="VerifyCreateLabelDeferredPS" r:id="rId16" sheetId="15"/>
+    <sheet name="VerifyEditLabelDeferredPS" r:id="rId17" sheetId="16"/>
+    <sheet name="VerifyCancelLabelDeferredPS" r:id="rId18" sheetId="17"/>
+    <sheet name="VerifyCreateLabelDeferredCredit" r:id="rId19" sheetId="18"/>
+    <sheet name="VerifyEditLabelDeferredCredit" r:id="rId20" sheetId="19"/>
+    <sheet name="VerifyCancelLabelDeferredCredit" r:id="rId21" sheetId="20"/>
+    <sheet name="VerifyCreateLabelDeferredPC" r:id="rId22" sheetId="12"/>
+    <sheet name="VerifyEditLabelDeferredPC" r:id="rId23" sheetId="13"/>
+    <sheet name="VerifyCancelLabelDeferredPC" r:id="rId24" sheetId="14"/>
+    <sheet name="CMCDeferredPlanPS" r:id="rId25" sheetId="6"/>
+    <sheet name="CMCDeferredPlanCredit" r:id="rId26" sheetId="5"/>
+    <sheet name="CMCDeferredPlanPC" r:id="rId27" sheetId="7"/>
+    <sheet name="CMCDeferredPlanCorp" r:id="rId28" sheetId="8"/>
+    <sheet name="CMCAutoPayPlanCorp" r:id="rId29" sheetId="25"/>
+    <sheet name="CMCAutoPayPlanCredit" r:id="rId30" sheetId="26"/>
+    <sheet name="CMCAutoPayPlanPC" r:id="rId31" sheetId="27"/>
+    <sheet name="CMCAutoPayPlanPS" r:id="rId32" sheetId="28"/>
+    <sheet name="VerifyCreateLabelAutopayCorp" r:id="rId33" sheetId="29"/>
+    <sheet name="VerifyCreateLabelAutopayCC" r:id="rId34" sheetId="30"/>
+    <sheet name="VerifyCreateLabelAutopayPC" r:id="rId35" sheetId="31"/>
+    <sheet name="VerifyEditLabelAutopayCorp" r:id="rId36" sheetId="33"/>
+    <sheet name="VerifyEditLabelAutopayCC" r:id="rId37" sheetId="34"/>
+    <sheet name="VerifyEditLabelAutopayPS" r:id="rId38" sheetId="35"/>
+    <sheet name="VerifyEditLabelAutopayPC" r:id="rId39" sheetId="36"/>
+    <sheet name="VerifyCancelLabelAutopayCorp" r:id="rId40" sheetId="37"/>
+    <sheet name="VerifyCancelLabelAutopayCC" r:id="rId41" sheetId="38"/>
+    <sheet name="VerifyCancelLabelAutopayPC" r:id="rId42" sheetId="39"/>
+    <sheet name="VerifyCancelLabelAutopayPS" r:id="rId43" sheetId="40"/>
+    <sheet name="VerifyCreateLabelAutopayPS" r:id="rId44" sheetId="32"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4628" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="173">
   <si>
     <t>Result</t>
   </si>
@@ -292,198 +295,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>Sat Oct 12 01:26:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Oct 14 21:01:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:08:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:10:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:11:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:13:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:15:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:16:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:18:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:20:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:46:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:47:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:48:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:49:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:51:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:52:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:54:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:55:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:09:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:10:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:11:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:13:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:15:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:16:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:18:31 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:19:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:16:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:18:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:20:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:22:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:24:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:26:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:29:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:30:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:45:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:47:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:48:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:50:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:53:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:54:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:57:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:58:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:01:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:03:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:05:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:07:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:09:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:11:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:13:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:15:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:05:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:07:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:09:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:13:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:14:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:17:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:18:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:21:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:23:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:25:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:27:31 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:29:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:31:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:33:42 IST 2024</t>
-  </si>
-  <si>
     <t>Pay Now Credit Card Yes Emulator Data</t>
   </si>
   <si>
@@ -493,1117 +304,289 @@
     <t>15</t>
   </si>
   <si>
-    <t>Wed Oct 30 14:48:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 14:50:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 18:57:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 18:58:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:00:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:01:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:02:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:03:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:04:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:05:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:07:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:08:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:09:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:11:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:12:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:13:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:14:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:15:54 EST 2024</t>
+    <t>Thu Feb 27 20:15:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 27 20:17:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:37:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:39:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:41:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:42:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:44:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:45:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:46:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:58:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:59:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:01:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:02:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:03:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:04:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:06:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:07:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:08:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:10:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:11:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:13:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:14:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:16:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:17:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:18:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:31:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:33:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:34:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:35:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:37:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:38:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:40:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:41:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:42:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:44:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:45:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:46:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:50:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:52:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:53:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:54:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:56:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:57:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:58:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:00:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:01:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:03:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:04:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:05:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:07:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:08:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:10:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:11:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:12:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:14:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:04:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:05:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:07:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:08:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:10:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:11:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:13:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:14:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:16:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:17:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:18:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:20:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:21:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:22:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:23:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:25:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:26:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:27:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:29:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:30:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:32:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:33:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:35:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:36:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:38:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:39:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:25:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Pay Now Corporate Yes Emulator Data</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:29:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:58:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Pay Now PC Yes Emulator Data</t>
+  </si>
+  <si>
+    <t>12342222</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:02:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:06:01 IST 2025</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Mon Jan 20 19:57:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 19:58:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 19:59:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:00:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:01:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:02:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:04:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:05:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:07:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:08:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:10:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:11:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:12:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:13:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:15:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 20:16:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:16:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:17:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:18:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:20:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:21:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:22:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:24:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:25:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:34:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:35:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:36:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:37:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:39:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:40:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:41:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:42:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:44:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:45:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:46:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:47:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:49:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:50:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:52:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:53:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:12:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:13:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:15:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:16:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:17:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:18:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:22:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:23:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:24:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:25:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:26:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:27:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:28:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:30:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:31:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:32:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:34:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:35:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 13:53:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 13:54:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 13:56:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 13:57:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 13:58:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:00:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:01:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:02:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:04:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:05:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:06:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:07:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:09:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:10:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:11:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:12:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:14:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:15:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:17:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:18:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:20:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:21:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:23:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:24:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:25:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:27:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:28:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:29:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:30:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:32:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:33:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:34:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:36:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:37:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:38:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:39:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:41:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:42:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:43:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:45:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:56:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:57:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 14:59:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:00:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:01:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:03:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:04:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:06:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:07:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:08:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:10:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:11:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:13:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:14:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:16:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 15:17:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:00:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:02:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:03:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:05:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:06:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:07:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:09:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:10:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:11:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:13:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:14:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:15:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:16:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:17:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:19:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:20:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:21:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:23:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:24:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:25:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:27:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:28:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:30:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:31:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:33:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:34:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:35:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:37:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:38:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:39:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:41:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:42:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:43:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:44:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:46:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:47:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:48:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:49:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:51:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 16:52:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:03:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:05:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:06:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:07:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:09:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:10:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:12:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:13:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:14:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:16:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:17:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:19:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:20:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:22:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:23:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:25:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:26:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:27:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:28:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:29:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:31:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:32:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:33:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:34:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:35:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:37:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:38:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:39:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:41:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:42:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 10 17:43:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 02:53:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 02:55:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 02:56:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 02:57:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 02:59:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:00:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:01:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:03:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:13:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:14:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:15:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:16:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:18:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:19:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:20:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:21:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:23:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:24:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:25:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:27:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:28:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:30:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:31:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:32:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:44:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:46:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:47:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:48:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:50:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:51:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:52:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:53:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:55:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:56:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:57:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 03:58:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:00:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:01:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:02:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:03:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:15:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:16:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:17:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:19:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:20:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:21:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 04:23:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:11:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:12:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:14:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:15:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:17:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:18:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:19:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:21:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:22:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:24:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:25:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:26:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:27:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:28:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:29:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:31:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:32:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:33:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:35:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:36:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:37:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:39:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:40:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:41:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:42:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 26 05:43:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 20:09:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 20:15:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 20:17:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 20:51:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 20:53:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 20:55:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 20:57:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 20:59:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 21:00:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 19:19:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 28 19:21:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 04 21:07:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 04 21:09:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:01:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:03:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:04:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:06:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:07:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:08:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:10:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:11:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:22:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:24:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:25:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:26:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:27:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:29:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:30:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:31:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:32:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:34:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:35:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:37:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:38:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:39:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:41:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:42:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:55:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:56:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:57:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 00:59:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:00:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:02:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:04:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:06:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:08:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:09:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:10:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:12:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:13:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:14:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:16:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:17:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:18:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:19:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:20:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:22:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:25:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:27:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:28:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:30:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:31:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:32:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:35:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:36:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:37:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:39:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 01:40:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:30:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:33:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:34:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:37:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:38:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:41:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:42:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:44:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:45:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:47:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:48:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:49:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:51:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:53:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:54:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:55:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:57:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:58:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 02:59:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 03:01:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 03:02:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 03:05:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 03:07:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 03:08:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 03:10:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 03:12:25 IST 2025</t>
+    <t>Thu Apr 03 18:53:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 18:55:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 19:00:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 19:01:42 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1973,13 +956,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2068,12 +1051,12 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2154,12 +1137,12 @@
       <c r="AC2" s="2"/>
       <c r="AE2" s="4"/>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2244,6 +1227,427 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F529ED-3A89-4F8F-BD36-459852A5DF83}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA264D1-2E50-4CB9-BFEE-8C623610CE21}">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460D88B6-A386-4846-BE51-48B1BF32CF9B}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -2251,9 +1655,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2339,12 +1743,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2425,12 +1829,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2516,7 +1920,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FEF4E2-BFBF-46DF-A493-61D536E6B905}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A45949-68BF-404E-8F7F-FB2E9E2F425C}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -2524,9 +2087,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2612,12 +2175,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2698,12 +2261,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2789,7 +2352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4B946A-2C4C-46EF-93A1-2FF7963F4F9C}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -2797,9 +2360,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2890,12 +2453,12 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2978,12 +2541,12 @@
       <c r="AC2" s="2"/>
       <c r="AE2" s="4"/>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3070,7 +2633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB1C7FA-E6AE-425E-93E9-7344162BF220}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -3078,9 +2641,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3175,12 +2738,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3270,12 +2833,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3370,7 +2933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F90F0E-2E15-46C5-95C8-91EEE2324B31}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
@@ -3378,12 +2941,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3483,12 +3046,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3580,12 +3143,12 @@
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3681,7 +3244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6083FB1-02F1-48D6-92EE-3F1FBC7D79B0}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -3689,9 +3252,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3786,12 +3349,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3881,12 +3444,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3981,7 +3544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF9C0F3-0DA7-44CD-B9A8-E552BD6DF9FF}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -3989,12 +3552,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4083,12 +3646,12 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4172,12 +3735,12 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4255,859 +3818,6 @@
         <v>26</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F02A9F4-7828-4F92-A71A-133EDBD34118}">
-  <dimension ref="A1:AE3"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:AC3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD1" s="1"/>
-    </row>
-    <row ht="75" r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="1"/>
-    </row>
-    <row ht="75" r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305C12C-5443-4486-B7D9-3C403F6F0EF8}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6314CBCE-7A5E-4A0C-AF29-C3F1F0871FFF}">
-  <dimension ref="A1:AF3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5124,20 +3834,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" style="2" width="8.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
-    <col min="8" max="22" style="2" width="8.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.7109375" collapsed="true"/>
-    <col min="27" max="31" style="2" width="8.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="true"/>
-    <col min="33" max="16384" style="2" width="8.7109375" collapsed="true"/>
+    <col min="1" max="6" style="2" width="8.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
+    <col min="8" max="22" style="2" width="8.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
+    <col min="27" max="31" style="2" width="8.6640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
+    <col min="33" max="16384" style="2" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5235,12 +3945,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5330,12 +4040,12 @@
       <c r="AG2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5429,6 +4139,859 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F02A9F4-7828-4F92-A71A-133EDBD34118}">
+  <dimension ref="A1:AE3"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:AC3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="1"/>
+    </row>
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305C12C-5443-4486-B7D9-3C403F6F0EF8}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6314CBCE-7A5E-4A0C-AF29-C3F1F0871FFF}">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9259111-57D2-4ED8-A106-9387F81FA5DC}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
@@ -5436,12 +4999,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5541,12 +5104,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5638,12 +5201,12 @@
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5739,7 +5302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E446BF9-B02F-4740-AE83-9C5B060028BD}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -5747,9 +5310,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5844,12 +5407,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5939,12 +5502,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6039,7 +5602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5776B0E-DB55-4350-9FD4-A6F4560407FB}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
@@ -6047,9 +5610,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6147,12 +5710,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6241,12 +5804,12 @@
       </c>
       <c r="AF2" s="2"/>
     </row>
-    <row ht="75" r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6340,7 +5903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAED720-8B00-473F-B284-AD53190F508A}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -6348,9 +5911,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6436,12 +5999,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>481</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6520,12 +6083,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>482</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6609,7 +6172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1473DEC-6EE5-4076-9D5F-5EF76D644876}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
@@ -6617,9 +6180,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6717,12 +6280,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6811,12 +6374,12 @@
       </c>
       <c r="AF2" s="2"/>
     </row>
-    <row ht="75" r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6910,7 +6473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A2BFFF-8CE2-4286-9146-DB049A020FA4}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
@@ -6918,9 +6481,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7009,12 +6572,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7094,12 +6657,12 @@
       </c>
       <c r="AC2" s="2"/>
     </row>
-    <row ht="75" r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7184,7 +6747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD943804-0444-45BD-878A-2DB8B5C8234B}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
@@ -7192,9 +6755,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7283,12 +6846,12 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7364,12 +6927,12 @@
       </c>
       <c r="AC2" s="2"/>
     </row>
-    <row ht="75" r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7444,843 +7007,6 @@
         <v>27</v>
       </c>
       <c r="AC3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C6E4E3-FEB0-4C8B-8567-D979A0CFEDEF}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE49C93-4BD2-4356-A28C-773B8D671B0F}">
-  <dimension ref="A1:AF3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0FF61A-DB8D-4A74-B78B-03F8F9F8B349}">
-  <dimension ref="A1:AF3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8295,9 +7021,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8395,12 +7121,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row ht="75" r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8490,12 +7216,12 @@
       <c r="AF2" s="2"/>
       <c r="AH2" s="4"/>
     </row>
-    <row ht="75" r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>471</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8589,6 +7315,843 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C6E4E3-FEB0-4C8B-8567-D979A0CFEDEF}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE49C93-4BD2-4356-A28C-773B8D671B0F}">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0FF61A-DB8D-4A74-B78B-03F8F9F8B349}">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BB3CFB-F620-4173-A70F-13BA05E908A1}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -8596,9 +8159,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8684,12 +8247,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8766,12 +8329,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8853,7 +8416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D02957-4C1C-4B36-8539-E094F8816C63}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -8861,9 +8424,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8949,12 +8512,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9031,12 +8594,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9118,7 +8681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB69706-E238-4434-A63F-310C1977C6F0}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -9126,9 +8689,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9223,12 +8786,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9314,12 +8877,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9410,7 +8973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3025D6A-7D6F-4C6F-96B5-791B34BCC219}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -9418,9 +8981,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9506,12 +9069,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9588,12 +9151,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9675,7 +9238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87FB397-5204-4FE3-B53C-72270511A532}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -9683,9 +9246,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9771,12 +9334,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9853,12 +9416,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9940,7 +9503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49FB132-06F3-42B4-B1F9-A19038A385CE}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -9948,9 +9511,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10045,12 +9608,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10136,12 +9699,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10232,7 +9795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72A2B1-158A-4CBE-92BF-97BEEB618388}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -10240,9 +9803,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10337,12 +9900,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10428,834 +9991,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49C59E-95FC-4A4C-AF9C-FF331A4E9E2C}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0AE3F5-1EA2-4637-B154-6C76E01F26D3}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD921781-5791-4926-9100-5C0AAE19E7EB}">
-  <dimension ref="A1:AF3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>492</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11354,12 +10095,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" style="2" width="8.7109375" collapsed="true"/>
+    <col min="1" max="16384" style="2" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11447,12 +10188,12 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="1"/>
     </row>
-    <row ht="75" r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11532,12 +10273,12 @@
       </c>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11625,6 +10366,828 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49C59E-95FC-4A4C-AF9C-FF331A4E9E2C}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0AE3F5-1EA2-4637-B154-6C76E01F26D3}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD921781-5791-4926-9100-5C0AAE19E7EB}">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2214AEC-363E-46E4-BBEE-32CDF3D3A6A4}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -11632,9 +11195,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11729,12 +11292,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11820,12 +11383,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11916,7 +11479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635B70C7-5F0C-49BF-B62E-2D9C67AF607B}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -11924,9 +11487,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12021,12 +11584,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12112,12 +11675,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12212,22 +11775,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69CD0F-BD47-4004-A91B-17A22C7F7735}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="6" style="2" width="8.88671875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
-    <col min="8" max="19" style="2" width="8.85546875" collapsed="true"/>
+    <col min="8" max="19" style="2" width="8.88671875" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
     <col min="21" max="22" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="24" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="24" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12313,12 +11876,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12393,12 +11956,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12486,9 +12049,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12574,12 +12137,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12654,12 +12217,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12747,9 +12310,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12844,12 +12407,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12933,12 +12496,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13032,12 +12595,12 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13132,12 +12695,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13221,12 +12784,12 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13319,13 +12882,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59C18C8-BC16-4EF9-ABC9-D44DBC5FD391}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13411,21 +12974,21 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -13467,21 +13030,21 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>72</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EE59EE46-5ACC-45FB-BE43-FE77F1884AE6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4B7E09CE-732D-4FF1-8E02-E5F03A604E08}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="12" firstSheet="10" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="440">
   <si>
     <t>Result</t>
   </si>
@@ -532,33 +532,15 @@
     <t>Tue Apr 01 08:30:40 IST 2025</t>
   </si>
   <si>
-    <t>Tue Apr 01 08:32:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:33:41 IST 2025</t>
-  </si>
-  <si>
     <t>Tue Apr 01 08:35:07 IST 2025</t>
   </si>
   <si>
     <t>Tue Apr 01 08:36:45 IST 2025</t>
   </si>
   <si>
-    <t>Tue Apr 01 08:38:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:39:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 04:25:31 IST 2025</t>
-  </si>
-  <si>
     <t>Pay Now Corporate Yes Emulator Data</t>
   </si>
   <si>
-    <t>Tue Apr 01 04:29:05 IST 2025</t>
-  </si>
-  <si>
     <t>Tue Apr 01 03:58:31 IST 2025</t>
   </si>
   <si>
@@ -574,19 +556,838 @@
     <t>Tue Apr 01 04:06:01 IST 2025</t>
   </si>
   <si>
+    <t>Thu Apr 03 19:00:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 03 19:01:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 21:50:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 21:51:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 21:53:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 21:54:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:09:42 IST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Thu Apr 03 18:53:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 03 18:55:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 03 19:00:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 03 19:01:42 IST 2025</t>
+    <t>Fri Apr 04 22:23:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:24:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:26:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:27:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:29:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:30:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:34:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:35:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:39:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:40:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:20:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:21:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:27:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:32:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:36:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:38:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:19:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:20:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:21:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:23:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:24:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:26:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:28:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:29:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:40:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:41:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:42:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:43:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:45:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:46:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:47:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:48:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:49:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:51:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:52:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:54:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:55:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:56:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:58:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:59:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:11:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:12:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:14:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:15:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:17:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:18:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:19:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:20:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:22:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:23:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:24:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:26:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:27:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:28:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:29:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:31:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:32:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:33:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:34:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:36:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:37:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:38:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:40:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:41:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:43:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:44:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:46:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:48:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:49:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:51:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:52:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:54:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:43:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:44:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:45:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:47:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:48:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:50:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:51:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:52:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:54:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:55:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:56:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:57:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:59:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:00:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:01:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:02:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:03:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:05:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:06:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:08:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:09:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:11:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:12:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:14:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:15:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 04:16:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:46:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:48:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:50:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:51:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 10 20:31:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 10 20:41:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 10 20:42:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 10 21:19:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:14:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:14:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:15:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:16:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:17:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:18:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:18:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:19:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:25:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:26:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:27:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:28:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:28:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:29:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:30:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:30:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:31:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:32:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:33:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:34:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:34:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:35:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:36:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:37:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:45:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:46:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:47:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:48:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:48:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:49:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:50:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:51:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:52:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:53:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:53:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:55:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:56:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:56:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:57:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:58:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:59:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:00:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:00:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:01:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:02:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:03:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:04:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:05:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:06:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:07:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:08:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:09:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:10:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:11:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:12:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:13:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:48:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:49:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:50:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:51:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:52:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:52:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:53:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:54:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:55:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:56:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:56:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:57:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:58:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:59:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:59:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:00:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:01:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:02:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:03:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:04:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:06:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:07:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:08:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:10:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 15:11:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:22:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:23:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:24:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:25:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:25:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:26:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:27:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:28:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:34:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:35:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:36:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:37:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:38:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:39:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:39:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:40:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:41:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:41:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:42:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:43:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:44:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:45:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:46:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:47:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:55:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:56:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:56:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:57:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:58:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:59:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:00:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:01:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:02:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:03:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:04:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:05:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:05:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:06:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:07:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:08:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:09:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:10:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:11:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:12:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:13:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:14:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:14:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:15:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:16:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:17:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:18:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:19:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:20:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:21:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:22:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:23:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:58:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:59:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:00:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:01:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:02:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:02:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:03:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:04:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:05:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:06:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:06:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:07:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:08:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:09:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:09:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:10:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:11:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:12:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:13:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:14:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:15:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:16:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:16:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:18:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:19:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 09:19:59 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1854,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1142,7 +1943,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>391</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1324,13 +2125,13 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1378,13 +2179,13 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -1439,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA264D1-2E50-4CB9-BFEE-8C623610CE21}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1534,13 +2335,13 @@
     </row>
     <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1573,10 +2374,10 @@
         <v>256072691</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>61</v>
@@ -1589,13 +2390,13 @@
     </row>
     <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -1628,10 +2429,10 @@
         <v>256072691</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>61</v>
@@ -1748,7 +2549,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>368</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1834,7 +2635,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -1922,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FEF4E2-BFBF-46DF-A493-61D536E6B905}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC2"/>
+      <selection activeCell="A3" sqref="A3:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,13 +2822,13 @@
     </row>
     <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2060,10 +2861,10 @@
         <v>256072691</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>60</v>
@@ -2073,6 +2874,61 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
+    </row>
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2180,7 +3036,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2266,7 +3122,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2458,7 +3314,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>376</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2546,7 +3402,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>377</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2743,7 +3599,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2838,7 +3694,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>373</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3051,7 +3907,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3148,7 +4004,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3354,7 +4210,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>364</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3449,7 +4305,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3651,7 +4507,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>366</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3740,7 +4596,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>367</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3950,7 +4806,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4042,10 +4898,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4243,7 +5099,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4328,10 +5184,10 @@
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>375</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4519,7 +5375,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4605,7 +5461,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4801,7 +5657,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>370</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4896,7 +5752,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5109,7 +5965,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>378</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5206,7 +6062,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>379</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5412,7 +6268,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5507,7 +6363,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5715,7 +6571,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>412</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5809,7 +6665,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6004,7 +6860,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>408</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6088,7 +6944,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6577,7 +7433,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6662,7 +7518,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>407</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6851,7 +7707,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6932,7 +7788,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>399</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7126,7 +7982,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>396</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7221,7 +8077,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7415,7 +8271,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7495,7 +8351,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>401</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -7685,7 +8541,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7774,7 +8630,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>403</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7973,7 +8829,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8062,7 +8918,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8252,7 +9108,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>424</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8334,7 +9190,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>425</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8517,7 +9373,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>422</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8599,7 +9455,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>423</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -8791,7 +9647,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>426</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8882,7 +9738,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9074,7 +9930,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>432</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9156,7 +10012,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>433</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9336,10 +10192,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9418,10 +10274,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9613,7 +10469,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>436</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9704,7 +10560,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9905,7 +10761,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9996,7 +10852,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>435</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10193,7 +11049,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>392</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10278,7 +11134,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>393</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10463,10 +11319,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>416</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10548,7 +11404,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10731,7 +11587,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10813,7 +11669,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11002,10 +11858,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>418</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11096,7 +11952,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11297,7 +12153,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11388,7 +12244,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>421</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11589,7 +12445,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>428</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11680,7 +12536,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11881,7 +12737,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11961,7 +12817,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>383</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12142,7 +12998,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12222,7 +13078,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>385</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12412,7 +13268,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>386</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12501,7 +13357,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>387</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12700,7 +13556,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>388</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12789,7 +13645,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12979,7 +13835,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>438</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -13035,7 +13891,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4782" uniqueCount="524">
   <si>
     <t>Result</t>
   </si>
@@ -1388,6 +1388,258 @@
   </si>
   <si>
     <t>Fri Apr 25 09:19:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:56:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:57:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:59:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:00:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:01:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:03:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:04:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:05:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:12:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:12:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:13:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:14:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:14:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:15:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:16:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:16:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:17:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:20:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:22:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:24:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:27:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:29:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:31:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:34:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:43:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:44:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:44:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:45:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:46:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:47:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:48:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:49:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:50:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:52:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:53:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:56:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:58:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:59:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:01:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:02:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:03:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:04:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:06:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:07:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:08:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:08:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:09:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:10:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:12:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:15:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:17:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:20:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:21:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:22:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:25:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:58:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:59:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:00:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:01:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:01:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:02:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:03:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:04:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:06:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:06:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:07:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:08:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:08:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:09:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:10:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:10:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:11:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:12:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:13:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:14:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:15:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:15:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:16:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:17:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:18:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 24 19:17:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 24 19:19:02 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +2109,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1940,10 +2192,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2549,7 +2801,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2635,7 +2887,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3033,10 +3285,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3119,10 +3371,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3311,10 +3563,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3399,10 +3651,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3599,7 +3851,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3694,7 +3946,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3904,10 +4156,10 @@
     </row>
     <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4001,10 +4253,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4207,10 +4459,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4302,10 +4554,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4507,7 +4759,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>522</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4596,7 +4848,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>523</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4803,10 +5055,10 @@
     </row>
     <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4901,7 +5153,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5096,10 +5348,10 @@
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5187,7 +5439,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5372,10 +5624,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5458,10 +5710,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5657,7 +5909,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5752,7 +6004,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5962,10 +6214,10 @@
     </row>
     <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6059,10 +6311,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>461</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6265,10 +6517,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6360,10 +6612,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6568,10 +6820,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6662,10 +6914,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>495</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6857,10 +7109,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6941,10 +7193,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -7430,10 +7682,10 @@
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7515,10 +7767,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7707,7 +7959,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7788,7 +8040,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7979,10 +8231,10 @@
     </row>
     <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8074,10 +8326,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8271,7 +8523,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8351,7 +8603,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -8541,7 +8793,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8630,7 +8882,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8829,7 +9081,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8918,7 +9170,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9108,7 +9360,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>506</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9190,7 +9442,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>507</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9373,7 +9625,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>504</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9455,7 +9707,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>505</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9647,7 +9899,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>508</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9738,7 +9990,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9930,7 +10182,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>514</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10012,7 +10264,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>515</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10195,7 +10447,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10277,7 +10529,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>513</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10469,7 +10721,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>518</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10560,7 +10812,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10761,7 +11013,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>516</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10852,7 +11104,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11046,10 +11298,10 @@
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>474</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11131,10 +11383,10 @@
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>475</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11319,10 +11571,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11404,7 +11656,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11587,7 +11839,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11669,7 +11921,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11858,10 +12110,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11952,7 +12204,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>501</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12153,7 +12405,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12244,7 +12496,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12445,7 +12697,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>510</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12536,7 +12788,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>511</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12737,7 +12989,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12817,7 +13069,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12998,7 +13250,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13078,7 +13330,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -13268,7 +13520,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13357,7 +13609,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13556,7 +13808,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13645,7 +13897,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13835,7 +14087,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -13891,7 +14143,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>521</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="760">
   <si>
     <t>Result</t>
   </si>
@@ -1388,6 +1388,966 @@
   </si>
   <si>
     <t>Fri Apr 25 09:19:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:56:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:57:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:59:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:00:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:01:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:03:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:04:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:05:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:12:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:12:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:13:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:14:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:14:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:15:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:16:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:16:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:17:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:20:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:22:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:24:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:27:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:29:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:31:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:34:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:43:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:44:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:44:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:45:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:46:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:47:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:48:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:49:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:50:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:52:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:53:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:56:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:58:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:59:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:01:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:02:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:03:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:04:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:06:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:07:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:08:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:08:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:09:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:10:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:12:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:15:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:17:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:20:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:21:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:22:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:25:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:58:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:59:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:00:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:01:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:01:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:02:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:03:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:04:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:06:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:06:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:07:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:08:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:08:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:09:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:10:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:10:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:11:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:12:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:13:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:14:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:15:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:15:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:16:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:17:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:18:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 24 19:17:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 24 19:19:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:11:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:12:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:13:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:14:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:15:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:16:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:17:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:18:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:26:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:27:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:28:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:28:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:29:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:30:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:30:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:31:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:32:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:33:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:34:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:34:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:36:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:37:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:39:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:40:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:48:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:48:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:49:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:50:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:51:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:52:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:53:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:53:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:55:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:56:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:57:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:58:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:00:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:00:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:01:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:02:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:03:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:05:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:10:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:11:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:13:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:15:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:17:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:18:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:19:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:21:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:55:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:55:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:57:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:58:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:58:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:59:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:00:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:01:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:02:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:03:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:04:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:04:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:05:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:06:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:07:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:08:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:09:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:10:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:11:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:11:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:12:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:13:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:14:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:15:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:16:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:17:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:36:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:37:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:39:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:40:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:44:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:46:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:54:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:55:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:57:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 19:58:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:01:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:03:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:06:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:11:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:14:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:16:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:17:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:19:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:21:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:36:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:43:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:48:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 20:53:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:00:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:02:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:06:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:09:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:12:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:18:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:20:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:25:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:27:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:28:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:31:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:33:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:47:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:48:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:51:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:52:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:54:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:55:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:59:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:15:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:16:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:20:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:21:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:25:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:26:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:28:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:29:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:31:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:33:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:37:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:38:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:41:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:42:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:48:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:49:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:51:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:52:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:56:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:25:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:26:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:30:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:31:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:34:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:35:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:40:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:41:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:45:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:46:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:43:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:45:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:46:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:47:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:49:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:50:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:55:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:56:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:58:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:59:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:01:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:02:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:04:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:14:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:15:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:22:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:23:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:25:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:26:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:09:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:11:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:14:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:15:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:18:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:19:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:21:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:23:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:25:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:26:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:29:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:30:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:33:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:34:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:40:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:41:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:44:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:45:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:49:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:50:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 20:00:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 20:01:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 20:03:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 20:04:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 20:57:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 20:58:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:01:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:02:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:06:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:10:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:11:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:14:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:18:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:19:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:20:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:22:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:24:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:25:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:27:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:28:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:30:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:33:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:46:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:47:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:57:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:58:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 22:17:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 22:19:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 22:58:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 23:02:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 23:06:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 23:12:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 23:24:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 23:27:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 23:28:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 23:30:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 23:51:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 23:54:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 00:00:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 00:05:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 00:06:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 00:09:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 00:10:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 00:14:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 00:16:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 19:40:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 19:42:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 19:44:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 19:45:17 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1854,10 +2814,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>646</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1943,7 +2903,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>647</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2549,7 +3509,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>534</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2635,7 +3595,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>535</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3036,7 +3996,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3122,7 +4082,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>721</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3314,7 +4274,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>635</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3402,7 +4362,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>636</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3599,7 +4559,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>538</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3694,7 +4654,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>539</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3907,7 +4867,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>546</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4004,7 +4964,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>547</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4210,7 +5170,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>725</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4305,7 +5265,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>726</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4507,7 +5467,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>532</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4596,7 +5556,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>533</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4806,7 +5766,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>701</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4898,10 +5858,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>702</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5099,7 +6059,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>639</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5184,10 +6144,10 @@
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>640</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5375,7 +6335,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>727</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5461,7 +6421,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>728</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5657,7 +6617,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>536</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5752,7 +6712,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>537</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5965,7 +6925,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>637</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6062,7 +7022,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>638</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6268,7 +7228,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>737</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6363,7 +7323,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>755</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6571,7 +7531,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>707</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6665,7 +7625,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>708</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6860,7 +7820,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>665</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6944,7 +7904,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>666</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -7141,7 +8101,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>705</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7235,7 +8195,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>706</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7433,7 +8393,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>663</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7518,7 +8478,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>664</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7707,7 +8667,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>656</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7788,7 +8748,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>657</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7982,7 +8942,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>717</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8077,7 +9037,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>718</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8271,7 +9231,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>697</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8351,7 +9311,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>698</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -8541,7 +9501,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>699</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8630,7 +9590,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>700</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8829,7 +9789,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>661</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8918,7 +9878,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>662</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9108,7 +10068,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>584</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9190,7 +10150,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>585</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9373,7 +10333,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>582</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9455,7 +10415,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>583</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9647,7 +10607,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>586</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9738,7 +10698,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>587</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9930,7 +10890,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>681</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10012,7 +10972,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>682</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10195,7 +11155,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>679</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10277,7 +11237,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>680</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10469,7 +11429,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>685</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10560,7 +11520,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>686</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10761,7 +11721,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>687</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10852,7 +11812,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>688</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11049,7 +12009,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>715</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11134,7 +12094,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>716</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11319,10 +12279,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>576</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11404,7 +12364,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>577</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11587,7 +12547,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>671</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11669,7 +12629,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>672</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11858,10 +12818,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>673</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11952,7 +12912,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>674</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12153,7 +13113,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>675</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12244,7 +13204,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>676</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12445,7 +13405,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>588</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12536,7 +13496,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>589</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12737,7 +13697,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>548</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12817,7 +13777,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>549</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12998,7 +13958,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>642</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13078,7 +14038,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>643</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -13268,7 +14228,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13357,7 +14317,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>553</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13556,7 +14516,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>644</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13645,7 +14605,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>645</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13835,7 +14795,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>758</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -13891,7 +14851,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>759</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="464">
   <si>
     <t>Result</t>
   </si>
@@ -1388,6 +1388,78 @@
   </si>
   <si>
     <t>Fri Apr 25 09:19:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 14:25:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 14:26:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:18:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:19:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:21:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:22:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:23:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:23:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:24:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:25:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:27:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:27:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:46:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:46:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:55:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 15:55:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 16:03:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 16:03:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 15:06:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 15:06:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 15:07:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 15:07:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 15:09:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 15:09:29 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -5375,7 +5447,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5461,7 +5533,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6268,7 +6340,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>458</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6363,7 +6435,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12998,7 +13070,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13078,7 +13150,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>463</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4B7E09CE-732D-4FF1-8E02-E5F03A604E08}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9B312A01-2407-47E1-A44A-9751F0DDAF61}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="10" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="28" firstSheet="41" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="CCDeferredPlanCorp" r:id="rId1" sheetId="4"/>
@@ -30,13 +30,13 @@
     <sheet name="VerifyEditLabelDeferredCorp" r:id="rId15" sheetId="11"/>
     <sheet name="VerifyCreateLabelDeferredPS" r:id="rId16" sheetId="15"/>
     <sheet name="VerifyEditLabelDeferredPS" r:id="rId17" sheetId="16"/>
-    <sheet name="VerifyCancelLabelDeferredPS" r:id="rId18" sheetId="17"/>
-    <sheet name="VerifyCreateLabelDeferredCredit" r:id="rId19" sheetId="18"/>
-    <sheet name="VerifyEditLabelDeferredCredit" r:id="rId20" sheetId="19"/>
-    <sheet name="VerifyCancelLabelDeferredCredit" r:id="rId21" sheetId="20"/>
-    <sheet name="VerifyCreateLabelDeferredPC" r:id="rId22" sheetId="12"/>
-    <sheet name="VerifyEditLabelDeferredPC" r:id="rId23" sheetId="13"/>
-    <sheet name="VerifyCancelLabelDeferredPC" r:id="rId24" sheetId="14"/>
+    <sheet name="VerifyCancelLabelDeferredCredit" r:id="rId18" sheetId="20"/>
+    <sheet name="VerifyCancelLabelDeferredPC" r:id="rId19" sheetId="14"/>
+    <sheet name="VerifyCancelLabelDeferredPS" r:id="rId20" sheetId="17"/>
+    <sheet name="VerifyCreateLabelDeferredCredit" r:id="rId21" sheetId="18"/>
+    <sheet name="VerifyEditLabelDeferredCredit" r:id="rId22" sheetId="19"/>
+    <sheet name="VerifyCreateLabelDeferredPC" r:id="rId23" sheetId="12"/>
+    <sheet name="VerifyEditLabelDeferredPC" r:id="rId24" sheetId="13"/>
     <sheet name="CMCDeferredPlanPS" r:id="rId25" sheetId="6"/>
     <sheet name="CMCDeferredPlanCredit" r:id="rId26" sheetId="5"/>
     <sheet name="CMCDeferredPlanPC" r:id="rId27" sheetId="7"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="260">
   <si>
     <t>Result</t>
   </si>
@@ -304,2050 +304,550 @@
     <t>15</t>
   </si>
   <si>
-    <t>Thu Feb 27 20:15:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 27 20:17:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:37:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:38:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:39:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:41:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:42:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:44:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:45:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:46:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:58:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 05:59:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:01:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:02:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:03:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:04:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:06:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:07:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:08:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:10:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:11:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:13:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:14:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:16:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:17:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:18:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:31:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:33:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:34:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:35:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:37:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:38:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:40:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:41:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:42:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:44:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:45:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:46:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:50:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:52:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:53:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:54:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:56:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:57:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 06:58:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:00:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:01:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:03:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:04:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:05:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:07:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:08:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:10:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:11:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:12:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 07:14:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:04:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:05:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:07:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:08:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:10:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:11:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:13:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:14:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:16:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:17:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:18:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:20:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:21:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:22:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:23:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:25:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:26:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:27:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:29:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:30:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:35:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 08:36:45 IST 2025</t>
-  </si>
-  <si>
     <t>Pay Now Corporate Yes Emulator Data</t>
   </si>
   <si>
-    <t>Tue Apr 01 03:58:31 IST 2025</t>
-  </si>
-  <si>
     <t>Pay Now PC Yes Emulator Data</t>
   </si>
   <si>
     <t>12342222</t>
   </si>
   <si>
-    <t>Tue Apr 01 04:02:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 04:06:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 03 19:00:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 03 19:01:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 21:50:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 21:51:23 IST 2025</t>
-  </si>
-  <si>
     <t>Fri Apr 04 21:53:41 IST 2025</t>
   </si>
   <si>
     <t>Fri Apr 04 21:54:49 IST 2025</t>
   </si>
   <si>
-    <t>Tue Apr 01 04:09:42 IST 2025</t>
+    <t>Fri Apr 04 22:29:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 22:30:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:20:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:21:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:26:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:27:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:28:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:28:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:29:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:30:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:30:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:31:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:39:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:40:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:48:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:48:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:51:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:52:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:57:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:58:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:02:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:03:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:04:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:04:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:05:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:06:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:07:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 02:08:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:47:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:48:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:51:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:52:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:54:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 21:55:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:15:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:16:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:20:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:21:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:48:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:49:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:25:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:26:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:30:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:31:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:34:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 23:35:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:43:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:45:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:46:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:47:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:49:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:50:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:58:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:59:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:01:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:02:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:14:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:15:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:22:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 01:23:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:21:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:23:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:25:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:26:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:29:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:30:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:40:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:41:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:44:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 19:45:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 20:57:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 20:58:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:01:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:02:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:10:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:11:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:20:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:22:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:24:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 21:25:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 22:17:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 00:16:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 19:44:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 07 19:45:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestvRelay30NoCFAuto - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestvRelay25NoCFAuto - </t>
+  </si>
+  <si>
+    <t>Thu Aug 07 22:50:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 00:04:00 IST 2025</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Fri Apr 04 22:23:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 22:24:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 22:26:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 22:27:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 22:29:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 22:30:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 22:34:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 22:35:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 22:39:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 22:40:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 23:20:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 23:21:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 23:27:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 23:32:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 23:36:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 04 23:38:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:19:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:20:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:21:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:23:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:24:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:26:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:28:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:29:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:40:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:41:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:42:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:43:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:45:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:46:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:47:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:48:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:49:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:51:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:52:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:54:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:55:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:56:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:58:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 01:59:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:11:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:12:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:14:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:15:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:17:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:18:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:19:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:20:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:22:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:23:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:24:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:26:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:27:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:28:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:29:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:31:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:32:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:33:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:34:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:36:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:37:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:38:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:40:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:41:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:43:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:44:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:46:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:48:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:49:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:51:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:52:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 02:54:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:43:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:44:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:45:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:47:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:48:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:50:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:51:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:52:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:54:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:55:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:56:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:57:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 03:59:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:00:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:01:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:02:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:03:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:05:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:06:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:08:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:09:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:11:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:12:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:14:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:15:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 04:16:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 07:46:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 07:48:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 07:50:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Apr 05 07:51:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 10 20:31:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 10 20:41:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 10 20:42:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 10 21:19:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:14:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:14:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:15:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:16:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:17:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:18:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:18:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:19:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:25:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:26:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:27:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:28:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:28:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:29:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:30:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:30:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:31:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:32:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:33:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:34:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:34:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:35:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:36:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:37:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:45:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:46:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:47:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:48:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:48:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:49:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:50:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:51:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:52:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:53:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:53:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:55:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:56:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:56:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:57:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:58:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 13:59:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:00:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:00:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:01:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:02:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:03:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:04:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:05:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:06:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:07:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:08:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:09:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:10:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:11:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:12:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:13:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:48:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:49:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:50:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:51:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:52:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:52:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:53:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:54:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:55:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:56:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:56:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:57:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:58:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:59:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:59:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:00:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:01:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:02:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:03:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:04:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:05:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:06:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:07:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:08:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:10:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 15:11:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:22:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:23:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:24:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:25:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:25:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:26:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:27:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:28:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:34:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:35:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:36:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:37:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:38:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:39:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:39:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:40:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:41:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:41:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:42:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:43:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:44:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:45:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:46:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:47:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:55:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:56:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:56:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:57:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:58:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 07:59:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:00:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:01:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:02:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:03:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:04:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:05:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:05:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:06:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:07:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:08:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:09:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:10:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:11:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:12:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:13:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:14:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:14:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:15:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:16:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:17:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:18:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:19:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:20:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:21:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:22:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:23:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:58:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 08:59:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:00:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:01:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:02:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:02:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:03:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:04:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:05:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:06:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:06:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:07:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:08:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:09:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:09:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:10:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:11:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:12:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:13:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:14:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:15:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:16:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:16:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:18:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:19:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 09:19:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 20:56:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 20:57:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 20:59:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:00:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:01:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:03:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:04:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:05:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:12:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:12:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:13:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:14:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:14:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:15:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:16:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:16:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:17:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:20:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:22:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:24:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:27:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:29:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:31:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:34:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:43:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:44:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:44:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:45:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:46:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:47:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:48:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:49:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:50:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:52:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:53:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:56:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:58:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 21:59:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:01:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:02:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:03:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:04:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:05:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:06:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:07:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:08:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:08:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:09:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:10:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:12:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:15:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:17:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:20:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:21:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:22:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:25:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:58:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 22:59:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:00:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:01:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:01:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:02:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:03:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:04:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:05:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:06:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:06:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:07:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:08:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:08:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:09:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:10:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:10:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:11:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:12:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:13:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:14:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:15:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:15:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:16:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:17:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 03 23:18:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 24 19:17:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jun 24 19:19:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:11:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:12:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:13:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:14:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:15:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:16:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:17:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:18:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:26:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:27:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:28:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:28:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:29:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:30:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:30:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:31:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:32:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:33:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:34:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:34:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:36:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:37:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:39:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:40:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:48:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:48:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:49:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:50:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:51:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:52:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:53:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:53:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:55:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:56:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:57:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:58:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:00:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:00:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:01:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:02:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:03:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:05:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:10:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:11:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:13:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:15:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:17:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:18:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:19:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:21:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:55:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:55:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:57:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:58:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:58:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:59:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:00:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:01:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:02:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:03:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:04:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:04:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:05:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:06:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:07:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:08:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:09:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:10:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:11:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:11:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:12:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:13:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:14:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:15:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:16:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:17:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:36:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:37:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:39:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:40:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:44:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:46:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:54:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:55:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:57:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 19:58:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:01:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:03:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:06:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:11:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:14:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:16:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:17:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:19:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:21:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:36:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:43:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:48:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 20:53:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:00:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:02:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:06:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:09:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:12:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:18:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:20:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:25:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:27:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:28:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:31:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:33:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:47:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:48:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:51:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:52:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:54:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:55:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:59:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:15:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:16:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:20:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:21:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:25:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:26:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:28:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:29:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:31:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:33:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:37:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:38:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:41:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:42:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:48:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:49:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:51:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:52:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:56:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:25:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:26:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:30:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:31:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:34:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:35:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:40:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:41:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:45:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:46:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:43:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:45:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:46:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:47:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:49:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:50:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:55:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:56:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:58:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:59:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:01:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:02:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:04:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:05:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:14:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:15:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:22:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:23:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:25:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:26:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:09:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:11:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:14:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:15:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:18:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:19:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:21:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:23:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:25:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:26:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:29:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:30:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:33:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:34:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:40:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:41:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:44:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:45:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:49:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:50:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 20:00:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 20:01:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 20:03:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 20:04:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 20:57:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 20:58:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:01:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:02:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:06:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:10:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:11:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:14:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:18:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:19:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:20:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:22:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:24:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:25:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:27:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:28:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:30:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:33:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:46:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:47:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:57:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:58:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 22:17:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 22:19:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 22:58:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 23:02:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 23:06:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 23:12:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 23:24:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 23:27:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 23:28:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 23:30:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 23:51:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 23:54:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 00:00:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 00:05:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 00:06:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 00:09:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 00:10:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 00:14:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 00:16:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 19:40:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 19:42:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 19:44:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 19:45:17 IST 2025</t>
+    <t>Fri Aug 08 02:58:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:59:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:59:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:00:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:01:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:02:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:02:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:03:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:14:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:15:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:16:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:17:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:18:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:18:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:19:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:20:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:21:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:22:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:23:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:24:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:24:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:25:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:26:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:27:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:29:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:30:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:32:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:33:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:35:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:36:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:37:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:39:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:40:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:42:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:43:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:44:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:17:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:18:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:19:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:20:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:21:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:22:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:23:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:24:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:25:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:26:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:27:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:27:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:28:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:29:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:30:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:30:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:31:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:32:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:33:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:34:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:35:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:36:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:37:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:38:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:39:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:40:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 12:18:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 12:19:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 13:06:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 13:08:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:06:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:09:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:12:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:15:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:16:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:18:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:19:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:21:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:22:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:26:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:26:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:29:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:30:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:34:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:35:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:36:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:37:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:42:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 12 20:43:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 19:50:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 13 19:52:00 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2419,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
@@ -2429,6 +929,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2711,19 +1214,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480F8651-F3AC-4535-B367-EFECB2CBCC7D}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="26.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2808,16 +1311,16 @@
       <c r="AB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
+      <c r="AC1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2895,15 +1398,16 @@
       <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AE2" s="4"/>
+      <c r="AC2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>647</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2980,6 +1484,9 @@
       </c>
       <c r="AB3" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3088,10 +1595,10 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -3142,10 +1649,10 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -3298,10 +1805,10 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -3334,10 +1841,10 @@
         <v>256072691</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>61</v>
@@ -3353,10 +1860,10 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -3389,10 +1896,10 @@
         <v>256072691</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>61</v>
@@ -3509,7 +2016,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>534</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3595,7 +2102,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3685,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FEF4E2-BFBF-46DF-A493-61D536E6B905}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:AC3"/>
     </sheetView>
   </sheetViews>
@@ -3785,10 +2292,10 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -3821,10 +2328,10 @@
         <v>256072691</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>60</v>
@@ -3840,10 +2347,10 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -3876,10 +2383,10 @@
         <v>256072691</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>60</v>
@@ -3897,15 +2404,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A45949-68BF-404E-8F7F-FB2E9E2F425C}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3990,13 +2497,16 @@
       <c r="AB1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4076,13 +2586,16 @@
       <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>721</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4161,6 +2674,9 @@
       </c>
       <c r="AB3" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4170,15 +2686,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4B946A-2C4C-46EF-93A1-2FF7963F4F9C}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4266,15 +2782,16 @@
       <c r="AC1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
+      <c r="AD1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>635</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4355,14 +2872,16 @@
         <v>27</v>
       </c>
       <c r="AC2" s="2"/>
-      <c r="AE2" s="4"/>
+      <c r="AD2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>636</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4443,6 +2962,9 @@
         <v>27</v>
       </c>
       <c r="AC3" s="2"/>
+      <c r="AD3" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4559,7 +3081,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4654,7 +3176,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4751,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F90F0E-2E15-46C5-95C8-91EEE2324B31}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4762,7 +3284,7 @@
     <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4859,15 +3381,16 @@
       <c r="AF1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
+      <c r="AG1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>546</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4957,14 +3480,16 @@
         <v>27</v>
       </c>
       <c r="AF2" s="2"/>
-      <c r="AH2" s="4"/>
+      <c r="AG2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5054,6 +3579,9 @@
         <v>27</v>
       </c>
       <c r="AF3" s="2"/>
+      <c r="AG3" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5061,16 +3589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6083FB1-02F1-48D6-92EE-3F1FBC7D79B0}">
-  <dimension ref="A1:AF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305C12C-5443-4486-B7D9-3C403F6F0EF8}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5126,54 +3654,48 @@
         <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>725</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -5184,8 +3706,8 @@
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -5221,54 +3743,48 @@
         <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>726</v>
+        <v>249</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -5316,43 +3832,37 @@
         <v>20</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5361,6 +3871,940 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E446BF9-B02F-4740-AE83-9C5B060028BD}">
+  <dimension ref="A1:AG3"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C90F22-FE25-4600-AD2E-915F2F742F43}">
+  <dimension ref="A1:AG3"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" style="2" width="8.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
+    <col min="8" max="22" style="2" width="8.6640625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
+    <col min="24" max="25" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
+    <col min="27" max="31" style="2" width="8.6640625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
+    <col min="33" max="16384" style="2" width="8.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6083FB1-02F1-48D6-92EE-3F1FBC7D79B0}">
+  <dimension ref="A1:AG3"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF9C0F3-0DA7-44CD-B9A8-E552BD6DF9FF}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -5467,7 +4911,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5556,7 +5000,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5642,324 +5086,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C90F22-FE25-4600-AD2E-915F2F742F43}">
-  <dimension ref="A1:AI3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" style="2" width="8.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
-    <col min="8" max="22" style="2" width="8.6640625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
-    <col min="24" max="25" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
-    <col min="27" max="31" style="2" width="8.6640625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.6640625" collapsed="true"/>
-    <col min="33" max="16384" style="2" width="8.6640625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-    </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2"/>
-      <c r="AH2" s="4"/>
-    </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F02A9F4-7828-4F92-A71A-133EDBD34118}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:AC3"/>
+      <selection activeCell="AD1" sqref="AD1:AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6052,14 +5184,16 @@
       <c r="AC1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="1"/>
+      <c r="AD1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>639</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6140,14 +5274,16 @@
         <v>27</v>
       </c>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="1"/>
+      <c r="AD2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>640</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6228,286 +5364,16 @@
         <v>27</v>
       </c>
       <c r="AC3" s="2"/>
+      <c r="AD3" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305C12C-5443-4486-B7D9-3C403F6F0EF8}">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>727</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>728</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6314CBCE-7A5E-4A0C-AF29-C3F1F0871FFF}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
@@ -6617,7 +5483,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6712,7 +5578,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6807,12 +5673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9259111-57D2-4ED8-A106-9387F81FA5DC}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6917,7 +5783,9 @@
       <c r="AF1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="3"/>
+      <c r="AG1" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="AH1" s="3"/>
     </row>
     <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
@@ -6925,7 +5793,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>637</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7015,6 +5883,9 @@
         <v>27</v>
       </c>
       <c r="AF2" s="2"/>
+      <c r="AG2" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="AH2" s="4"/>
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -7022,7 +5893,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>638</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7112,305 +5983,8 @@
         <v>27</v>
       </c>
       <c r="AF3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E446BF9-B02F-4740-AE83-9C5B060028BD}">
-  <dimension ref="A1:AF3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>755</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>27</v>
+      <c r="AG3" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -7420,15 +5994,15 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5776B0E-DB55-4350-9FD4-A6F4560407FB}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7525,13 +6099,16 @@
       <c r="AF1" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="AG1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>707</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7619,13 +6196,16 @@
         <v>27</v>
       </c>
       <c r="AF2" s="2"/>
+      <c r="AG2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>708</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7713,6 +6293,9 @@
         <v>27</v>
       </c>
       <c r="AF3" s="2"/>
+      <c r="AG3" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7721,15 +6304,15 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAED720-8B00-473F-B284-AD53190F508A}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7814,13 +6397,16 @@
       <c r="AB1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7898,13 +6484,16 @@
       <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -7981,6 +6570,9 @@
       </c>
       <c r="AB3" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -7990,15 +6582,15 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1473DEC-6EE5-4076-9D5F-5EF76D644876}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8095,13 +6687,16 @@
       <c r="AF1" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="AG1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>705</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8189,13 +6784,16 @@
         <v>27</v>
       </c>
       <c r="AF2" s="2"/>
+      <c r="AG2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>706</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8283,6 +6881,9 @@
         <v>27</v>
       </c>
       <c r="AF3" s="2"/>
+      <c r="AG3" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8291,15 +6892,15 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A2BFFF-8CE2-4286-9146-DB049A020FA4}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8387,13 +6988,16 @@
       <c r="AC1" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="AD1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>663</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8472,13 +7076,16 @@
         <v>27</v>
       </c>
       <c r="AC2" s="2"/>
+      <c r="AD2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>664</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8557,6 +7164,9 @@
         <v>27</v>
       </c>
       <c r="AC3" s="2"/>
+      <c r="AD3" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8567,8 +7177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD943804-0444-45BD-878A-2DB8B5C8234B}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8667,7 +7277,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8748,7 +7358,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8831,15 +7441,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2598D2-608A-4EC2-A59A-28A4F2F2C19C}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8933,16 +7543,16 @@
       <c r="AE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
+      <c r="AF1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>717</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9029,15 +7639,16 @@
       <c r="AE2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="2"/>
-      <c r="AH2" s="4"/>
+      <c r="AF2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>718</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9123,6 +7734,9 @@
       </c>
       <c r="AE3" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -9231,7 +7845,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>697</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9311,7 +7925,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9501,7 +8115,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>699</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9590,7 +8204,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>700</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9789,7 +8403,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>661</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9878,7 +8492,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>662</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10068,7 +8682,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10150,7 +8764,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>585</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10333,7 +8947,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10415,7 +9029,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10607,7 +9221,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10698,7 +9312,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10890,7 +9504,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>681</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10969,10 +9583,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11155,7 +9769,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>679</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11237,7 +9851,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>680</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11429,7 +10043,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>685</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11520,7 +10134,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>686</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11721,7 +10335,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>687</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11812,7 +10426,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>688</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11905,10 +10519,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11916,7 +10530,7 @@
     <col min="1" max="16384" style="2" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12001,15 +10615,16 @@
       <c r="AB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="1"/>
+      <c r="AC1" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>715</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12087,14 +10702,16 @@
       <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="1"/>
+      <c r="AC2" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>716</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12171,6 +10788,9 @@
       </c>
       <c r="AB3" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -12282,7 +10902,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12364,7 +10984,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>577</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12547,7 +11167,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>671</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12629,7 +11249,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>672</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12821,7 +11441,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>673</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12912,7 +11532,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>674</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13110,10 +11730,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>675</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13204,7 +11824,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>676</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13405,7 +12025,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13496,7 +12116,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13697,7 +12317,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>548</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13777,7 +12397,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13958,7 +12578,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>642</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -14038,7 +12658,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>643</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -14228,7 +12848,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -14317,7 +12937,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -14516,7 +13136,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -14605,7 +13225,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>645</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -14795,7 +13415,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>758</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -14851,7 +13471,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>759</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="481">
   <si>
     <t>Result</t>
   </si>
@@ -848,6 +848,669 @@
   </si>
   <si>
     <t>Wed Aug 13 19:52:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:09:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:09:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:10:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:11:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:11:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:12:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:13:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:14:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:18:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:19:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:19:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:20:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:21:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:21:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:22:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:23:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:23:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:24:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:25:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:28:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:29:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:39:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:40:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:41:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:41:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:42:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:43:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:44:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:44:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:52:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:52:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:53:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:54:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:54:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:55:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:56:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:57:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:57:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:58:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:59:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:59:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:00:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:01:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:02:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:02:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:11:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:11:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:12:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:13:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:14:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:17:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:18:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:20:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:21:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:22:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:22:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:23:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:24:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:25:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:25:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:26:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:27:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:35:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:38:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:39:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:40:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:40:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:41:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:42:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:43:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:43:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:45:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:47:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:48:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:49:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:50:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:50:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:51:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:52:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:53:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:54:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:55:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:56:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:56:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:57:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:58:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:58:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:59:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 07:00:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 07:01:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 07:03:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 07:03:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 07:04:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 07:06:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 07:08:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 07:09:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 07:10:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:46:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:48:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:53:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:55:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:59:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:01:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:10:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:13:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:16:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:18:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:20:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:25:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:26:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:30:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:32:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:35:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:36:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:39:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:41:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:57:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:59:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:04:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:36:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:38:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:40:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:42:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:08:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:09:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:15:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:16:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:19:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:21:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:26:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:29:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:34:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:38:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:39:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:43:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:51:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:14:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:15:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:24:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:25:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:25:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:26:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:27:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:27:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:28:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:29:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:36:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:36:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:37:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:38:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:38:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:39:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:40:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:41:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:41:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:42:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:43:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:43:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:44:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:45:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:45:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:46:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:55:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:56:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:57:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:58:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:59:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:01:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:02:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:02:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:04:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:05:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:06:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:08:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:09:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:09:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:10:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:11:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:13:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:18:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:22:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:23:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:24:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:24:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:25:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:26:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:26:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:27:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:28:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:27:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:28:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:29:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:29:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:30:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:31:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:32:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:33:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:34:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:35:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:36:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:36:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:37:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:38:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:38:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:41:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:41:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:42:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:43:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:46:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:47:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:48:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:49:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:50:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:51:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:52:12 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1983,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>436</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1407,7 +2070,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>437</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2013,10 +2676,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>414</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2099,10 +2762,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>415</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2506,7 +3169,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2595,7 +3258,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>407</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2788,10 +3451,10 @@
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>422</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2878,10 +3541,10 @@
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>423</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3078,10 +3741,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>418</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3173,10 +3836,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3387,10 +4050,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>426</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3486,10 +4149,10 @@
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3692,7 +4355,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>404</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3781,7 +4444,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -3980,10 +4643,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>408</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4078,10 +4741,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4300,10 +4963,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>440</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4396,10 +5059,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>441</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4605,10 +5268,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>410</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4703,10 +5366,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>411</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4908,10 +5571,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>412</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4997,10 +5660,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>413</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5193,7 +5856,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5283,7 +5946,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>421</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5480,10 +6143,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5575,10 +6238,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>417</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5790,10 +6453,10 @@
     </row>
     <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>424</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5890,10 +6553,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>425</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6108,7 +6771,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>453</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6205,7 +6868,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>454</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6406,7 +7069,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>449</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6493,7 +7156,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>450</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6696,7 +7359,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>451</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6790,10 +7453,10 @@
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>452</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6997,7 +7660,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>447</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7085,7 +7748,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>448</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7277,7 +7940,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7358,7 +8021,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>379</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7549,10 +8212,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>442</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7648,7 +8311,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>443</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7842,10 +8505,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7925,7 +8588,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -8115,7 +8778,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>391</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8204,7 +8867,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8403,7 +9066,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8492,7 +9155,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>446</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8682,7 +9345,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>465</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8764,7 +9427,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>466</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8947,7 +9610,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>463</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9029,7 +9692,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>464</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9221,7 +9884,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>467</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9312,7 +9975,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>468</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9501,10 +10164,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>473</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9583,10 +10246,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>474</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9766,10 +10429,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>471</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9851,7 +10514,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>472</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10043,7 +10706,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>477</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10134,7 +10797,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10335,7 +10998,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>475</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10426,7 +11089,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>476</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10621,10 +11284,10 @@
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>438</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10708,10 +11371,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>439</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10899,10 +11562,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>457</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10984,7 +11647,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>458</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11164,10 +11827,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>455</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11249,7 +11912,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>456</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11441,7 +12104,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>459</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11532,7 +12195,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>460</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11730,10 +12393,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>461</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11824,7 +12487,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>462</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12022,10 +12685,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>469</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12116,7 +12779,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12314,10 +12977,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12397,7 +13060,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12578,7 +13241,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>430</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12658,7 +13321,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>431</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12845,10 +13508,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>432</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12937,7 +13600,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>433</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13136,7 +13799,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>434</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13225,7 +13888,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>435</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13415,7 +14078,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>479</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -13471,7 +14134,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>480</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="485">
   <si>
     <t>Result</t>
   </si>
@@ -1511,6 +1511,18 @@
   </si>
   <si>
     <t>Fri Aug 22 03:52:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 19:28:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 19:30:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 19:44:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 19:45:59 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -12977,10 +12989,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13060,7 +13072,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13241,7 +13253,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13321,7 +13333,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="276">
   <si>
     <t>Result</t>
   </si>
@@ -848,6 +848,54 @@
   </si>
   <si>
     <t>Wed Aug 13 19:52:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:29:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:30:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:31:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:32:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:33:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:34:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:35:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:35:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:35:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:37:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:38:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:38:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:38:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:39:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:39:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:39:44 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1368,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -1407,7 +1455,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4300,10 +4348,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4396,10 +4444,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7549,10 +7597,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7648,7 +7696,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10621,10 +10669,10 @@
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10708,10 +10756,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12314,10 +12362,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12397,7 +12445,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12575,10 +12623,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12658,7 +12706,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12845,10 +12893,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12937,7 +12985,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13136,7 +13184,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13225,7 +13273,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\VPS-Katalon-feature-VRelay\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9B312A01-2407-47E1-A44A-9751F0DDAF61}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{15157E78-5EEC-421C-B332-31D1EC5904A7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="28" firstSheet="41" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="20" firstSheet="19" windowHeight="9000" windowWidth="17280" xWindow="4284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1428"/>
   </bookViews>
   <sheets>
     <sheet name="CCDeferredPlanCorp" r:id="rId1" sheetId="4"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="346">
   <si>
     <t>Result</t>
   </si>
@@ -331,246 +331,6 @@
     <t>Fri Apr 04 23:21:12 IST 2025</t>
   </si>
   <si>
-    <t>Tue Aug 05 00:26:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:27:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:28:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:28:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:29:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:30:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:30:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:31:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:39:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:40:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:48:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:48:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:51:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 00:52:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:57:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 01:58:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:02:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:03:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:04:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:04:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:05:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:06:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:07:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 02:08:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:47:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:48:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:51:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:52:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:54:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 21:55:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:15:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:16:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:20:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:21:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:48:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 22:49:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:25:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:26:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:30:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:31:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:34:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 05 23:35:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:43:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:45:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:46:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:47:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:49:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:50:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:58:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 00:59:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:01:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:02:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:14:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:15:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:22:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 01:23:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:21:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:23:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:25:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:26:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:29:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:30:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:40:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:41:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:44:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 19:45:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 20:57:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 20:58:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:01:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:02:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:10:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:11:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:20:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:22:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:24:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 21:25:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 06 22:17:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 00:16:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 19:44:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 07 19:45:17 IST 2025</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -580,937 +340,772 @@
     <t xml:space="preserve">TestvRelay25NoCFAuto - </t>
   </si>
   <si>
-    <t>Thu Aug 07 22:50:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 00:04:00 IST 2025</t>
+    <t>Thu Aug 21 21:39:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:41:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 21:59:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:15:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:38:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:24:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:25:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:25:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:26:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:27:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:27:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:28:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:29:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:36:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:36:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:37:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:38:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:38:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:39:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:40:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:41:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:41:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:42:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:43:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:43:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:44:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:45:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:45:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:46:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:59:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:01:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:02:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:02:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:04:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:05:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:06:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:08:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:09:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:09:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:10:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:11:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:13:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:18:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:22:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:24:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:27:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:28:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:27:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:28:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:29:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:29:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:30:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:31:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:32:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:33:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:34:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:35:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:36:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:36:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:37:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:38:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:38:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:41:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:41:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:42:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:43:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:46:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:47:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:48:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:49:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:50:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:51:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:52:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 19:28:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 19:30:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 19:44:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 19:45:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 00:19:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 00:25:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 00:26:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 00:30:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 00:31:49 IST 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestvRelay25NoCFAuto -  </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Fri Aug 08 02:58:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 02:59:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 02:59:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:00:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:01:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:02:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:02:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:03:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:14:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:15:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:16:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:17:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:18:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:18:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:19:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:20:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:21:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:22:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:23:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:24:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:24:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:25:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:26:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:27:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:29:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:30:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:32:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:33:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:35:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:36:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:37:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:39:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:40:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:42:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:43:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 03:44:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:17:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:18:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:19:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:20:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:21:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:22:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:23:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:24:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:25:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:26:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:27:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:27:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:28:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:29:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:30:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:30:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:31:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:32:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:33:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:34:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:35:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:36:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:37:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:38:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:39:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 04:40:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 12:18:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 12:19:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 13:06:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 08 13:08:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:06:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:09:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:12:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:15:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:16:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:18:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:19:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:21:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:22:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:26:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:26:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:29:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:30:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:34:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:35:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:36:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:37:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:42:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Aug 12 20:43:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 13 19:50:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Aug 13 19:52:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:09:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:09:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:10:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:11:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:11:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:12:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:13:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:14:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:18:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:19:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:19:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:20:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:21:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:21:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:22:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:23:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:23:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:24:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:25:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:26:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:27:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:27:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:28:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 02:29:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:39:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:40:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:41:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:41:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:42:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:43:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:44:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:44:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:52:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:52:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:53:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:54:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:54:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:55:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:56:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:57:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:57:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:58:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:59:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 03:59:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:00:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:01:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:02:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:02:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:11:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:11:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:12:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:13:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:14:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:17:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:18:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:20:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:21:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:22:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:22:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:23:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:24:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:25:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:25:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:26:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:27:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:35:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:38:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:39:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:40:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:40:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:41:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:42:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:43:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 04:43:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:45:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:47:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:48:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:49:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:50:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:50:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:51:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:52:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:53:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:54:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:55:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:56:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:56:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:57:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:58:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:58:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 06:59:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 07:00:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 07:01:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 07:03:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 07:03:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 07:04:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 07:06:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 07:08:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 07:09:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 07:10:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 20:46:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 20:48:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 20:53:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 20:55:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 20:59:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:01:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:07:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:10:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:13:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:16:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:18:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:20:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:25:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:26:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:30:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:32:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:35:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:36:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:39:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:41:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:57:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 21:59:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 22:04:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 22:31:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 22:32:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 22:36:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 22:38:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 22:40:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 22:42:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:08:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:09:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:15:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:16:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:19:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:21:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:26:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:29:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:34:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:38:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:39:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:43:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Aug 21 23:51:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 00:14:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 00:15:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:24:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:25:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:25:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:26:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:27:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:27:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:28:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:29:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:36:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:36:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:37:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:38:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:38:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:39:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:40:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:41:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:41:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:42:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:43:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:43:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:44:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:45:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:45:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:46:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:55:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:56:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:57:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:58:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 01:59:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:01:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:02:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:02:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:04:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:05:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:06:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:08:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:09:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:09:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:10:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:11:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:13:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:18:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:22:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:23:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:24:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:24:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:25:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:26:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:26:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:27:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 02:28:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:27:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:28:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:29:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:29:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:30:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:31:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:32:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:33:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:34:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:35:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:36:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:36:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:37:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:38:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:38:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:41:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:41:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:42:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:43:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:46:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:47:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:48:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:49:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:50:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:51:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Aug 22 03:52:12 IST 2025</t>
+    <t>Thu Sep 04 01:05:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:06:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:11:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:12:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:21:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:22:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:23:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:24:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:25:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:26:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:27:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:28:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:36:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:36:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:37:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:38:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:39:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:39:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:40:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:41:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:42:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:43:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:44:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:45:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:46:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:47:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:48:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:49:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:58:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:59:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:00:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:01:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:02:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:03:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:04:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:05:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:06:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:07:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:08:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:09:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:09:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:10:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:11:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:12:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:13:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:15:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:16:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:18:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:19:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:20:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:21:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:23:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:25:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:26:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:27:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:29:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:30:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:32:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:08:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:09:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:10:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:11:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:12:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:14:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:15:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:16:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:17:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:18:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:19:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:20:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:22:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:23:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:24:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:24:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:25:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:26:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:28:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:29:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:30:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:31:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:33:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:34:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:35:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:36:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:48:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:49:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:50:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:51:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:52:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:53:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:54:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:56:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:03:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:04:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:05:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:06:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:07:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:07:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:08:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:09:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:10:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:11:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:12:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:13:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:14:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:15:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:16:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:17:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:29:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:31:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:32:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:34:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:35:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:51:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:52:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:53:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:54:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:55:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:56:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:57:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:58:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:59:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:00:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:01:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:02:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:03:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:04:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:06:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:07:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:08:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:09:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:10:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:11:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:12:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:13:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:14:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:15:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:52:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:53:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:54:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:55:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:56:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:57:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:58:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:59:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:00:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:01:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:02:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:03:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:04:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:05:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:06:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:06:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:07:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:08:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:10:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:11:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:12:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:13:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:14:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:16:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:17:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 02:18:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:19:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:20:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:27:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:29:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:32:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:34:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:36:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:37:48 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1975,15 +1570,15 @@
         <v>54</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>290</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2062,15 +1657,15 @@
         <v>27</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2149,7 +1744,7 @@
         <v>27</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2676,10 +2271,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2762,10 +2357,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3161,15 +2756,15 @@
         <v>54</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3250,15 +2845,15 @@
         <v>27</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3339,7 +2934,7 @@
         <v>27</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3446,15 +3041,15 @@
         <v>65</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3536,15 +3131,15 @@
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3626,7 +3221,7 @@
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3741,10 +3336,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3836,10 +3431,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4045,15 +3640,15 @@
         <v>65</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4144,15 +3739,15 @@
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4243,7 +3838,7 @@
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4347,15 +3942,15 @@
         <v>54</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4436,15 +4031,15 @@
         <v>27</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4525,7 +4120,7 @@
         <v>27</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4638,15 +4233,15 @@
         <v>54</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4736,15 +4331,15 @@
         <v>27</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4834,7 +4429,7 @@
         <v>27</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4958,15 +4553,15 @@
         <v>54</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>294</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5054,15 +4649,15 @@
         <v>27</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5150,7 +4745,7 @@
         <v>27</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5162,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6083FB1-02F1-48D6-92EE-3F1FBC7D79B0}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5263,15 +4858,15 @@
         <v>54</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5361,15 +4956,15 @@
         <v>27</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5459,7 +5054,7 @@
         <v>27</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5469,10 +5064,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF9C0F3-0DA7-44CD-B9A8-E552BD6DF9FF}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5480,7 +5075,7 @@
     <col min="2" max="2" customWidth="true" width="23.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5565,16 +5160,13 @@
       <c r="AB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5654,16 +5246,13 @@
       <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5848,15 +5437,15 @@
         <v>65</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5938,15 +5527,15 @@
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6028,7 +5617,7 @@
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -6143,10 +5732,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6238,10 +5827,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6447,16 +6036,16 @@
         <v>65</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="AH1" s="3"/>
     </row>
     <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6547,16 +6136,16 @@
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="AH2" s="4"/>
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6647,7 +6236,7 @@
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -6763,15 +6352,15 @@
         <v>65</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6860,15 +6449,15 @@
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6957,7 +6546,7 @@
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7061,15 +6650,15 @@
         <v>54</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7148,15 +6737,15 @@
         <v>27</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -7235,7 +6824,7 @@
         <v>27</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7351,15 +6940,15 @@
         <v>65</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7448,15 +7037,15 @@
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7545,7 +7134,7 @@
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7652,15 +7241,15 @@
         <v>65</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7740,15 +7329,15 @@
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>305</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7828,7 +7417,7 @@
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7840,7 +7429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD943804-0444-45BD-878A-2DB8B5C8234B}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -7940,7 +7529,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8021,7 +7610,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8207,15 +7796,15 @@
         <v>54</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8303,15 +7892,15 @@
         <v>27</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8399,7 +7988,7 @@
         <v>27</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -8505,10 +8094,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8588,7 +8177,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -8778,7 +8367,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8867,7 +8456,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9066,7 +8655,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9155,7 +8744,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>343</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9345,7 +8934,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9427,7 +9016,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9610,7 +9199,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9692,7 +9281,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>321</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9884,7 +9473,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9975,7 +9564,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10164,10 +9753,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>330</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10249,7 +9838,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>331</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10429,10 +10018,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10514,7 +10103,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>329</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10706,7 +10295,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>334</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10797,7 +10386,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>335</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10998,7 +10587,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11089,7 +10678,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>333</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11279,15 +10868,15 @@
         <v>54</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11366,15 +10955,15 @@
         <v>27</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11453,7 +11042,7 @@
         <v>27</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -11562,10 +11151,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11647,7 +11236,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11827,10 +11416,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>312</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11912,7 +11501,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12104,7 +11693,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12195,7 +11784,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>317</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12396,7 +11985,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>318</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12487,7 +12076,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12685,10 +12274,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12779,7 +12368,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>327</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12977,10 +12566,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13060,7 +12649,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13241,7 +12830,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13321,7 +12910,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -13508,10 +13097,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13600,7 +13189,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13799,7 +13388,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13888,7 +13477,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -14078,7 +13667,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>336</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -14134,7 +13723,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="567">
   <si>
     <t>Result</t>
   </si>
@@ -1523,6 +1523,252 @@
   </si>
   <si>
     <t>Tue Sep 02 19:45:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:50:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:51:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:52:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:53:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:55:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:56:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:57:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:58:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:08:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:10:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:11:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:12:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:13:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:14:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:15:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:16:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:17:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:18:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:19:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:21:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:22:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:23:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:24:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:25:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:35:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:36:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:37:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:38:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:39:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:40:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:41:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:43:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:45:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:47:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:48:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:49:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:50:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:51:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:52:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:53:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:54:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:55:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:56:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:57:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:58:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:58:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:00:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:00:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:02:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:03:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:04:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:06:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:08:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:10:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:11:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:13:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:54:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:56:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:57:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:58:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:59:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:01:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:02:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:04:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:05:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:06:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:07:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:07:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:08:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:09:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:10:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:12:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:13:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:15:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:17:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:19:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:20:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:22:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:23:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:25:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:26:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 02:28:49 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2241,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2079,10 +2325,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>518</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2688,10 +2934,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2774,10 +3020,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3178,10 +3424,10 @@
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3267,10 +3513,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3463,10 +3709,10 @@
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>503</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3553,10 +3799,10 @@
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>504</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3753,10 +3999,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3848,10 +4094,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4062,10 +4308,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>507</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4161,10 +4407,10 @@
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>508</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4364,10 +4610,10 @@
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>485</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4453,10 +4699,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4655,10 +4901,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4753,10 +4999,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4975,10 +5221,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5071,10 +5317,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5280,10 +5526,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5378,10 +5624,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5583,10 +5829,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5672,10 +5918,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -5865,10 +6111,10 @@
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5955,10 +6201,10 @@
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>502</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6155,10 +6401,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>497</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6250,10 +6496,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>498</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6465,10 +6711,10 @@
     </row>
     <row ht="72" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6565,10 +6811,10 @@
     </row>
     <row ht="72" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6783,7 +7029,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>539</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6880,7 +7126,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7081,7 +7327,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>535</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7165,10 +7411,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>536</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -7371,7 +7617,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>537</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7465,10 +7711,10 @@
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7672,7 +7918,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>533</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7760,7 +8006,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7949,10 +8195,10 @@
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>525</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8033,7 +8279,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>526</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8224,10 +8470,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>523</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8320,10 +8566,10 @@
     </row>
     <row ht="72" r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>524</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8520,7 +8766,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8600,7 +8846,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>528</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -8787,10 +9033,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>529</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8879,7 +9125,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9075,10 +9321,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9167,7 +9413,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>532</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9357,7 +9603,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9439,7 +9685,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>552</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9622,7 +9868,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>549</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9704,7 +9950,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>550</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9896,7 +10142,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>553</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9987,7 +10233,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>554</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10179,7 +10425,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>559</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10261,7 +10507,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>560</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10444,7 +10690,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10526,7 +10772,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>558</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10718,7 +10964,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>563</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10809,7 +11055,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11010,7 +11256,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>561</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11101,7 +11347,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>562</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11296,10 +11542,10 @@
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11383,10 +11629,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11574,10 +11820,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>543</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11659,7 +11905,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>544</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11839,10 +12085,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>541</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11924,7 +12170,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>542</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12113,10 +12359,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>545</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12207,7 +12453,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>546</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12408,7 +12654,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>547</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12499,7 +12745,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12700,7 +12946,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>555</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12791,7 +13037,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>556</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12989,10 +13235,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13072,7 +13318,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13250,10 +13496,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13333,7 +13579,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -13520,10 +13766,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>513</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13612,7 +13858,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>514</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13808,10 +14054,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13900,7 +14146,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>516</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -14090,7 +14336,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -14146,7 +14392,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>566</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>

--- a/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
+++ b/KatalonData/IWPTestData/VRelay25PaymentsExtension.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5358" uniqueCount="659">
   <si>
     <t>Result</t>
   </si>
@@ -1525,250 +1525,526 @@
     <t>Tue Sep 02 19:45:59 IST 2025</t>
   </si>
   <si>
-    <t>Wed Nov 05 23:50:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Nov 05 23:51:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Nov 05 23:52:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Nov 05 23:53:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Nov 05 23:55:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Nov 05 23:56:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Nov 05 23:57:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Nov 05 23:58:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:08:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:10:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:11:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:12:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:13:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:14:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:15:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:16:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:17:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:18:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:19:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:21:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:22:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:23:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:24:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:25:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:35:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:36:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:37:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:38:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:39:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:40:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:41:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:43:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:45:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:47:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:48:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:49:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:50:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:51:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:52:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:53:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:54:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:55:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:56:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:57:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:58:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 00:58:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:00:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:00:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:02:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:03:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:04:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:06:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:08:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:10:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:11:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:13:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:54:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:56:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:57:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:58:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 01:59:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:01:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:02:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:04:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:05:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:06:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:07:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:07:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:08:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:09:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:10:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:12:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:13:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:15:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:17:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:19:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:20:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:22:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:23:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:25:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:26:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 06 02:28:49 IST 2025</t>
+    <t>Fri Nov 14 21:35:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 21:36:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 21:50:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 21:53:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:35:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:36:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:37:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:38:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:39:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:41:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:42:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:43:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:51:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:52:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:53:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:54:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:55:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:55:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:56:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:57:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:58:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:59:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:00:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:01:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:02:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:03:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:05:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:06:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:15:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:17:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:19:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:21:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:22:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:23:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:24:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:25:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:26:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:27:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:28:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:29:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:30:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:31:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:32:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:33:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:34:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:35:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:36:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:37:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:38:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:39:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:40:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:41:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:43:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:44:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:45:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:46:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:47:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:49:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:50:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:51:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:30:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:31:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:32:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:34:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:35:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:37:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:39:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:40:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:41:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:42:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:43:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:44:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:45:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:47:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:48:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:49:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:50:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:50:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:51:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:54:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:55:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:57:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:58:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:00:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:01:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:02:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:32:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:33:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:34:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:35:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:36:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:37:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:38:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:39:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:48:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:49:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:50:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:51:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:52:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:53:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:54:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:55:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:56:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:57:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:58:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:59:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:00:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:01:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:02:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:03:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:12:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:13:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:14:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:15:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:16:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:19:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:20:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:22:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:23:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:25:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:26:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:27:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:28:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:29:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:30:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:31:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:34:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:35:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:36:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:37:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:38:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:39:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:40:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:41:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:43:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:44:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:45:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:46:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:47:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:48:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:49:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:28:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:30:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:31:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:32:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:34:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:35:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:36:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:38:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:39:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:41:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:42:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:43:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:44:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:45:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:46:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:46:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:47:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:48:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:49:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:52:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:53:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:55:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:56:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:57:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:59:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 05:01:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 18:48:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 18:50:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 18:52:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 18:55:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 19:26:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 19:36:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 19:38:12 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2517,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>603</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -2328,7 +2604,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>604</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -2937,7 +3213,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>581</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3023,7 +3299,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>582</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3427,7 +3703,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>573</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3516,7 +3792,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>574</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3712,7 +3988,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>589</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -3802,7 +4078,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>590</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4002,7 +4278,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>585</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4097,7 +4373,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>586</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4311,7 +4587,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>593</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -4410,7 +4686,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -4613,7 +4889,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>571</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4702,7 +4978,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>572</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -4901,10 +5177,10 @@
     </row>
     <row ht="72" r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>575</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5002,7 +5278,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5224,7 +5500,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>607</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5320,7 +5596,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5529,7 +5805,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>577</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -5627,7 +5903,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>578</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -5832,7 +6108,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5921,7 +6197,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>580</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6114,7 +6390,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>587</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6204,7 +6480,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>588</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6404,7 +6680,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6499,7 +6775,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>584</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -6714,7 +6990,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>591</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -6814,7 +7090,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>592</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7026,10 +7302,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>624</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7123,10 +7399,10 @@
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>625</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7324,10 +7600,10 @@
     </row>
     <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>620</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7411,10 +7687,10 @@
     </row>
     <row ht="72" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>621</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -7614,10 +7890,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>622</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -7714,7 +7990,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>623</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -7915,10 +8191,10 @@
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>618</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8003,10 +8279,10 @@
     </row>
     <row ht="72" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>534</v>
+        <v>619</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8198,7 +8474,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8279,7 +8555,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8473,7 +8749,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>609</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -8569,7 +8845,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>610</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -8766,7 +9042,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8846,7 +9122,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>613</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9036,7 +9312,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>614</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9125,7 +9401,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>615</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9321,10 +9597,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>616</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9413,7 +9689,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>617</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9603,7 +9879,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>636</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -9685,7 +9961,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>637</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -9865,10 +10141,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>634</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9950,7 +10226,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10142,7 +10418,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>638</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10233,7 +10509,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>639</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10425,7 +10701,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>656</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -10507,7 +10783,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10687,10 +10963,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>557</v>
+        <v>642</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10772,7 +11048,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10964,7 +11240,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11055,7 +11331,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11256,7 +11532,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>652</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11347,7 +11623,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>562</v>
+        <v>653</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11545,7 +11821,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11632,7 +11908,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>606</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11820,10 +12096,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>628</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -11905,7 +12181,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>544</v>
+        <v>629</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12088,7 +12364,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>541</v>
+        <v>657</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12170,7 +12446,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>542</v>
+        <v>658</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12362,7 +12638,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12453,7 +12729,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>546</v>
+        <v>631</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12651,10 +12927,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>632</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -12745,7 +13021,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>633</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12943,10 +13219,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>640</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13037,7 +13313,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>556</v>
+        <v>641</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13238,7 +13514,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13318,7 +13594,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -13496,10 +13772,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>597</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13579,7 +13855,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -13766,10 +14042,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -13858,7 +14134,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -14057,7 +14333,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>56</v>
@@ -14146,7 +14422,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>602</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -14336,7 +14612,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -14392,7 +14668,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>
